--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="176">
   <si>
     <t>Team</t>
   </si>
@@ -413,6 +414,138 @@
   </si>
   <si>
     <t>1.8095</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,D W W L W W</t>
+  </si>
+  <si>
+    <t>Clyde,L L W L L W</t>
+  </si>
+  <si>
+    <t>Cove Rangers,W L D D W L</t>
+  </si>
+  <si>
+    <t>Dumbarton,L W L L W L</t>
+  </si>
+  <si>
+    <t>East Fife,L W W L W L</t>
+  </si>
+  <si>
+    <t>Falkirk,W L L D L L</t>
+  </si>
+  <si>
+    <t>Forfar,L L L L W W</t>
+  </si>
+  <si>
+    <t>Montrose,D L W L L W</t>
+  </si>
+  <si>
+    <t>Partick,W W W W D W</t>
+  </si>
+  <si>
+    <t>Peterhead,L L W W W L</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,2 3 2 0 2 2</t>
+  </si>
+  <si>
+    <t>Clyde,0 0 3 0 1 2</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 0 2 2 2 0</t>
+  </si>
+  <si>
+    <t>Dumbarton,0 1 0 1 1 0</t>
+  </si>
+  <si>
+    <t>East Fife,1 2 2 0 2 1</t>
+  </si>
+  <si>
+    <t>Falkirk,2 0 0 2 0 1</t>
+  </si>
+  <si>
+    <t>Forfar,1 1 1 0 2 2</t>
+  </si>
+  <si>
+    <t>Montrose,2 0 1 1 0 2</t>
+  </si>
+  <si>
+    <t>Partick,2 5 2 1 2 5</t>
+  </si>
+  <si>
+    <t>Peterhead,0 1 1 3 3 1</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,2 1 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Clyde,2 1 1 3 2 0</t>
+  </si>
+  <si>
+    <t>Cove Rangers,0 1 2 2 0 2</t>
+  </si>
+  <si>
+    <t>Dumbarton,1 0 2 2 0 2</t>
+  </si>
+  <si>
+    <t>East Fife,2 1 1 2 1 3</t>
+  </si>
+  <si>
+    <t>Falkirk,1 2 1 2 5 2</t>
+  </si>
+  <si>
+    <t>Forfar,2 3 3 1 1 1</t>
+  </si>
+  <si>
+    <t>Montrose,2 5 0 2 2 1</t>
+  </si>
+  <si>
+    <t>Partick,0 0 0 0 2 0</t>
+  </si>
+  <si>
+    <t>Peterhead,3 2 0 0 1 2</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,4 4 2 1 3 2</t>
+  </si>
+  <si>
+    <t>Clyde,2 1 4 3 3 2</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 1 4 4 2 2</t>
+  </si>
+  <si>
+    <t>Dumbarton,1 1 2 3 1 2</t>
+  </si>
+  <si>
+    <t>East Fife,3 3 3 2 3 4</t>
+  </si>
+  <si>
+    <t>Falkirk,3 2 1 4 5 3</t>
+  </si>
+  <si>
+    <t>Forfar,3 4 4 1 3 3</t>
+  </si>
+  <si>
+    <t>Montrose,4 5 1 3 2 3</t>
+  </si>
+  <si>
+    <t>Partick,2 5 2 1 4 5</t>
+  </si>
+  <si>
+    <t>Peterhead,3 3 1 3 4 3</t>
   </si>
 </sst>
 </file>
@@ -5568,4 +5701,202 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -12,17 +12,21 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="L6" r:id="rId9" sheetId="7"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="250">
   <si>
     <t>Team</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -77,21 +81,21 @@
     <t>Partick</t>
   </si>
   <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
     <t>Cove Rangers</t>
   </si>
   <si>
-    <t>Airdrie Utd</t>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Montrose</t>
   </si>
   <si>
     <t>Falkirk</t>
   </si>
   <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
     <t>Peterhead</t>
   </si>
   <si>
@@ -104,316 +108,535 @@
     <t>Forfar</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>X2020.10.17</t>
+  </si>
+  <si>
+    <t>X2020.10.24</t>
+  </si>
+  <si>
+    <t>X2020.10.31</t>
+  </si>
+  <si>
+    <t>X2020.11.03</t>
+  </si>
+  <si>
+    <t>X2020.11.07</t>
+  </si>
+  <si>
+    <t>X2020.11.21</t>
+  </si>
+  <si>
+    <t>X2020.11.24</t>
+  </si>
+  <si>
+    <t>X2020.11.28</t>
+  </si>
+  <si>
+    <t>X2020.12.05</t>
+  </si>
+  <si>
+    <t>X2020.12.12</t>
+  </si>
+  <si>
+    <t>X2020.12.19</t>
+  </si>
+  <si>
+    <t>X2020.12.20</t>
+  </si>
+  <si>
+    <t>X2020.12.22</t>
+  </si>
+  <si>
+    <t>X2020.12.26</t>
+  </si>
+  <si>
+    <t>X2021.01.02</t>
+  </si>
+  <si>
+    <t>X2021.03.20</t>
+  </si>
+  <si>
+    <t>X2021.03.27</t>
+  </si>
+  <si>
+    <t>X2021.03.30</t>
+  </si>
+  <si>
+    <t>X2021.04.01</t>
+  </si>
+  <si>
+    <t>X2021.04.06</t>
+  </si>
+  <si>
+    <t>X2021.04.08</t>
+  </si>
+  <si>
+    <t>X2021.04.10</t>
+  </si>
+  <si>
+    <t>X2021.04.13</t>
+  </si>
+  <si>
+    <t>X2021.04.15</t>
+  </si>
+  <si>
+    <t>X2021.04.17</t>
+  </si>
+  <si>
+    <t>X2021.04.20</t>
+  </si>
+  <si>
+    <t>X2021.04.24</t>
+  </si>
+  <si>
+    <t>X2021.04.27</t>
+  </si>
+  <si>
+    <t>X2021.04.29</t>
+  </si>
+  <si>
+    <t>X2021.05.01</t>
+  </si>
+  <si>
+    <t>X2021.05.04</t>
+  </si>
+  <si>
+    <t>X2021.05.06</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>23.5</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>17.5</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>X2020.10.17</t>
-  </si>
-  <si>
-    <t>X2020.10.24</t>
-  </si>
-  <si>
-    <t>X2020.10.31</t>
-  </si>
-  <si>
-    <t>X2020.11.03</t>
-  </si>
-  <si>
-    <t>X2020.11.07</t>
-  </si>
-  <si>
-    <t>X2020.11.21</t>
-  </si>
-  <si>
-    <t>X2020.11.24</t>
-  </si>
-  <si>
-    <t>X2020.11.28</t>
-  </si>
-  <si>
-    <t>X2020.12.05</t>
-  </si>
-  <si>
-    <t>X2020.12.12</t>
-  </si>
-  <si>
-    <t>X2020.12.19</t>
-  </si>
-  <si>
-    <t>X2020.12.20</t>
-  </si>
-  <si>
-    <t>X2020.12.22</t>
-  </si>
-  <si>
-    <t>X2020.12.26</t>
-  </si>
-  <si>
-    <t>X2021.01.02</t>
-  </si>
-  <si>
-    <t>X2021.03.20</t>
-  </si>
-  <si>
-    <t>X2021.03.27</t>
-  </si>
-  <si>
-    <t>X2021.03.30</t>
-  </si>
-  <si>
-    <t>X2021.04.01</t>
-  </si>
-  <si>
-    <t>X2021.04.06</t>
-  </si>
-  <si>
-    <t>X2021.04.08</t>
-  </si>
-  <si>
-    <t>X2021.04.10</t>
-  </si>
-  <si>
-    <t>X2021.04.13</t>
-  </si>
-  <si>
-    <t>X2021.04.15</t>
-  </si>
-  <si>
-    <t>X2021.04.17</t>
-  </si>
-  <si>
-    <t>X2021.04.20</t>
-  </si>
-  <si>
-    <t>X2021.04.24</t>
-  </si>
-  <si>
-    <t>X2021.04.27</t>
-  </si>
-  <si>
-    <t>X2021.04.29</t>
-  </si>
-  <si>
-    <t>X2021.05.01</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>22.5</t>
+    <t>14.5</t>
   </si>
   <si>
     <t>26.5</t>
   </si>
   <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>14.5</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>54.5</t>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>37.5</t>
   </si>
   <si>
-    <t>48.5</t>
-  </si>
-  <si>
-    <t>43.5</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2.4286</t>
-  </si>
-  <si>
-    <t>2.5952</t>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44.5</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2.2955</t>
+  </si>
+  <si>
+    <t>2.4545</t>
   </si>
   <si>
     <t>1.7045</t>
   </si>
   <si>
-    <t>1.3095</t>
-  </si>
-  <si>
-    <t>2.425</t>
-  </si>
-  <si>
-    <t>2.0714</t>
-  </si>
-  <si>
-    <t>2.619</t>
-  </si>
-  <si>
-    <t>2.0952</t>
-  </si>
-  <si>
-    <t>1.8095</t>
+    <t>1.3409</t>
+  </si>
+  <si>
+    <t>2.2273</t>
+  </si>
+  <si>
+    <t>1.9545</t>
+  </si>
+  <si>
+    <t>2.0227</t>
+  </si>
+  <si>
+    <t>2.5909</t>
+  </si>
+  <si>
+    <t>2.0909</t>
+  </si>
+  <si>
+    <t>1.8182</t>
+  </si>
+  <si>
+    <t>Group.1</t>
+  </si>
+  <si>
+    <t>hst</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>TFthg</t>
+  </si>
+  <si>
+    <t>Avg_Fthg</t>
+  </si>
+  <si>
+    <t>TFtag</t>
+  </si>
+  <si>
+    <t>Avg_Ftag</t>
+  </si>
+  <si>
+    <t>TGS</t>
+  </si>
+  <si>
+    <t>HSTC</t>
+  </si>
+  <si>
+    <t>ASTC</t>
+  </si>
+  <si>
+    <t>TSTC</t>
+  </si>
+  <si>
+    <t>hsc</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>TFthc</t>
+  </si>
+  <si>
+    <t>Avg_Fthc</t>
+  </si>
+  <si>
+    <t>TFtac</t>
+  </si>
+  <si>
+    <t>Avg_Ftac</t>
+  </si>
+  <si>
+    <t>TGC</t>
+  </si>
+  <si>
+    <t>HSCC</t>
+  </si>
+  <si>
+    <t>ASCC</t>
+  </si>
+  <si>
+    <t>TSCC</t>
+  </si>
+  <si>
+    <t>37.50%</t>
+  </si>
+  <si>
+    <t>51.72%</t>
+  </si>
+  <si>
+    <t>27.69%</t>
+  </si>
+  <si>
+    <t>27.59%</t>
+  </si>
+  <si>
+    <t>36.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>40.43%</t>
+  </si>
+  <si>
+    <t>34.92%</t>
+  </si>
+  <si>
+    <t>23.26%</t>
+  </si>
+  <si>
+    <t>45.16%</t>
+  </si>
+  <si>
+    <t>35.29%</t>
+  </si>
+  <si>
+    <t>22.22%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>46.15%</t>
+  </si>
+  <si>
+    <t>34.09%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>36.84%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>32.56%</t>
+  </si>
+  <si>
+    <t>40.23%</t>
+  </si>
+  <si>
+    <t>42.86%</t>
+  </si>
+  <si>
+    <t>25.45%</t>
+  </si>
+  <si>
+    <t>22.58%</t>
+  </si>
+  <si>
+    <t>39.47%</t>
+  </si>
+  <si>
+    <t>25.44%</t>
+  </si>
+  <si>
+    <t>32.14%</t>
+  </si>
+  <si>
+    <t>38.82%</t>
+  </si>
+  <si>
+    <t>31.75%</t>
+  </si>
+  <si>
+    <t>27.91%</t>
+  </si>
+  <si>
+    <t>25.58%</t>
+  </si>
+  <si>
+    <t>47.22%</t>
+  </si>
+  <si>
+    <t>30.30%</t>
+  </si>
+  <si>
+    <t>28.95%</t>
+  </si>
+  <si>
+    <t>31.43%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>30.43%</t>
+  </si>
+  <si>
+    <t>28.00%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>42.00%</t>
+  </si>
+  <si>
+    <t>24.24%</t>
+  </si>
+  <si>
+    <t>26.53%</t>
+  </si>
+  <si>
+    <t>43.14%</t>
+  </si>
+  <si>
+    <t>27.87%</t>
+  </si>
+  <si>
+    <t>25.40%</t>
+  </si>
+  <si>
+    <t>48.72%</t>
+  </si>
+  <si>
+    <t>29.73%</t>
+  </si>
+  <si>
+    <t>31.91%</t>
+  </si>
+  <si>
+    <t>25.26%</t>
+  </si>
+  <si>
+    <t>44.19%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>38.37%</t>
+  </si>
+  <si>
+    <t>29.37%</t>
+  </si>
+  <si>
+    <t>29.03%</t>
   </si>
   <si>
     <t>Form</t>
@@ -428,124 +651,124 @@
     <t>Total Goals</t>
   </si>
   <si>
-    <t>Airdrie Utd,D W W L W W</t>
-  </si>
-  <si>
-    <t>Clyde,L L W L L W</t>
+    <t>Airdrie Utd,W W L W W W</t>
+  </si>
+  <si>
+    <t>Clyde,L W L L W W</t>
   </si>
   <si>
     <t>Cove Rangers,W L D D W L</t>
   </si>
   <si>
-    <t>Dumbarton,L W L L W L</t>
-  </si>
-  <si>
-    <t>East Fife,L W W L W L</t>
-  </si>
-  <si>
-    <t>Falkirk,W L L D L L</t>
-  </si>
-  <si>
-    <t>Forfar,L L L L W W</t>
-  </si>
-  <si>
-    <t>Montrose,D L W L L W</t>
-  </si>
-  <si>
-    <t>Partick,W W W W D W</t>
-  </si>
-  <si>
-    <t>Peterhead,L L W W W L</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,2 3 2 0 2 2</t>
-  </si>
-  <si>
-    <t>Clyde,0 0 3 0 1 2</t>
+    <t>Dumbarton,W L L W L W</t>
+  </si>
+  <si>
+    <t>East Fife,W L W L W L</t>
+  </si>
+  <si>
+    <t>Falkirk,L L D L L L</t>
+  </si>
+  <si>
+    <t>Forfar,L L L W W L</t>
+  </si>
+  <si>
+    <t>Montrose,L W L L W W</t>
+  </si>
+  <si>
+    <t>Partick,W W W D W L</t>
+  </si>
+  <si>
+    <t>Peterhead,L W W W L L</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 2 0 2 2 2</t>
+  </si>
+  <si>
+    <t>Clyde,0 3 0 1 2 2</t>
   </si>
   <si>
     <t>Cove Rangers,2 0 2 2 2 0</t>
   </si>
   <si>
-    <t>Dumbarton,0 1 0 1 1 0</t>
-  </si>
-  <si>
-    <t>East Fife,1 2 2 0 2 1</t>
-  </si>
-  <si>
-    <t>Falkirk,2 0 0 2 0 1</t>
-  </si>
-  <si>
-    <t>Forfar,1 1 1 0 2 2</t>
-  </si>
-  <si>
-    <t>Montrose,2 0 1 1 0 2</t>
-  </si>
-  <si>
-    <t>Partick,2 5 2 1 2 5</t>
-  </si>
-  <si>
-    <t>Peterhead,0 1 1 3 3 1</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,2 1 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Clyde,2 1 1 3 2 0</t>
+    <t>Dumbarton,1 0 1 1 0 3</t>
+  </si>
+  <si>
+    <t>East Fife,2 0 2 1 3 1</t>
+  </si>
+  <si>
+    <t>Falkirk,0 0 2 0 1 0</t>
+  </si>
+  <si>
+    <t>Forfar,1 1 0 2 2 2</t>
+  </si>
+  <si>
+    <t>Montrose,0 1 1 0 2 3</t>
+  </si>
+  <si>
+    <t>Partick,5 2 1 2 5 2</t>
+  </si>
+  <si>
+    <t>Peterhead,1 1 3 3 1 2</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,1 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t>Clyde,1 1 3 2 0 1</t>
   </si>
   <si>
     <t>Cove Rangers,0 1 2 2 0 2</t>
   </si>
   <si>
-    <t>Dumbarton,1 0 2 2 0 2</t>
-  </si>
-  <si>
-    <t>East Fife,2 1 1 2 1 3</t>
-  </si>
-  <si>
-    <t>Falkirk,1 2 1 2 5 2</t>
-  </si>
-  <si>
-    <t>Forfar,2 3 3 1 1 1</t>
-  </si>
-  <si>
-    <t>Montrose,2 5 0 2 2 1</t>
-  </si>
-  <si>
-    <t>Partick,0 0 0 0 2 0</t>
-  </si>
-  <si>
-    <t>Peterhead,3 2 0 0 1 2</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,4 4 2 1 3 2</t>
-  </si>
-  <si>
-    <t>Clyde,2 1 4 3 3 2</t>
+    <t>Dumbarton,0 2 2 0 2 2</t>
+  </si>
+  <si>
+    <t>East Fife,1 2 1 3 2 2</t>
+  </si>
+  <si>
+    <t>Falkirk,2 1 2 5 2 2</t>
+  </si>
+  <si>
+    <t>Forfar,3 3 1 1 1 3</t>
+  </si>
+  <si>
+    <t>Montrose,5 0 2 2 1 2</t>
+  </si>
+  <si>
+    <t>Partick,0 0 0 2 0 3</t>
+  </si>
+  <si>
+    <t>Peterhead,2 0 0 1 2 3</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,4 2 1 3 2 2</t>
+  </si>
+  <si>
+    <t>Clyde,1 4 3 3 2 3</t>
   </si>
   <si>
     <t>Cove Rangers,2 1 4 4 2 2</t>
   </si>
   <si>
-    <t>Dumbarton,1 1 2 3 1 2</t>
-  </si>
-  <si>
-    <t>East Fife,3 3 3 2 3 4</t>
-  </si>
-  <si>
-    <t>Falkirk,3 2 1 4 5 3</t>
-  </si>
-  <si>
-    <t>Forfar,3 4 4 1 3 3</t>
-  </si>
-  <si>
-    <t>Montrose,4 5 1 3 2 3</t>
-  </si>
-  <si>
-    <t>Partick,2 5 2 1 4 5</t>
-  </si>
-  <si>
-    <t>Peterhead,3 3 1 3 4 3</t>
+    <t>Dumbarton,1 2 3 1 2 5</t>
+  </si>
+  <si>
+    <t>East Fife,3 2 3 4 5 3</t>
+  </si>
+  <si>
+    <t>Falkirk,2 1 4 5 3 2</t>
+  </si>
+  <si>
+    <t>Forfar,4 4 1 3 3 5</t>
+  </si>
+  <si>
+    <t>Montrose,5 1 3 2 3 5</t>
+  </si>
+  <si>
+    <t>Partick,5 2 1 4 5 5</t>
+  </si>
+  <si>
+    <t>Peterhead,3 1 3 4 3 5</t>
   </si>
 </sst>
 </file>
@@ -622,295 +845,328 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -929,93 +1185,99 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1024,73 +1286,73 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" t="s">
-        <v>2</v>
-      </c>
       <c r="X2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="s">
         <v>87</v>
@@ -1099,185 +1361,197 @@
         <v>87</v>
       </c>
       <c r="AA2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="s">
         <v>87</v>
       </c>
       <c r="AE2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2</v>
-      </c>
       <c r="V3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="s">
         <v>87</v>
       </c>
       <c r="AA3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC3" t="s">
         <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
+      <c r="R4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" t="s">
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" t="s">
-        <v>2</v>
-      </c>
       <c r="V4" t="s">
         <v>87</v>
       </c>
       <c r="W4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4" t="s">
         <v>87</v>
@@ -1286,117 +1560,129 @@
         <v>87</v>
       </c>
       <c r="Z4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
         <v>3</v>
       </c>
-      <c r="AB4" t="s">
-        <v>2</v>
-      </c>
       <c r="AC4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="T5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" t="s">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" t="s">
-        <v>2</v>
-      </c>
       <c r="V5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5" t="s">
         <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="s">
         <v>87</v>
       </c>
       <c r="AA5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="s">
         <v>87</v>
       </c>
       <c r="AE5" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -1404,70 +1690,70 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
       <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
-        <v>2</v>
-      </c>
       <c r="V6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X6" t="s">
         <v>87</v>
@@ -1476,191 +1762,203 @@
         <v>87</v>
       </c>
       <c r="Z6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="s">
         <v>87</v>
       </c>
       <c r="AD6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="s">
         <v>87</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
         <v>87</v>
       </c>
       <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
-        <v>2</v>
-      </c>
       <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
-        <v>2</v>
-      </c>
       <c r="T7" t="s">
         <v>87</v>
       </c>
       <c r="U7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB7" t="s">
         <v>3</v>
       </c>
-      <c r="V7" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" t="s">
-        <v>1</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>2</v>
-      </c>
       <c r="AC7" t="s">
         <v>87</v>
       </c>
       <c r="AD7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="Q8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" t="s">
+      <c r="T8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T8" t="s">
-        <v>87</v>
-      </c>
-      <c r="U8" t="s">
-        <v>2</v>
-      </c>
       <c r="V8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="s">
         <v>87</v>
@@ -1669,19 +1967,25 @@
         <v>87</v>
       </c>
       <c r="AA8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="s">
         <v>87</v>
       </c>
       <c r="AC8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1689,260 +1993,272 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" t="s">
-        <v>87</v>
-      </c>
-      <c r="P9" t="s">
-        <v>2</v>
-      </c>
       <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
         <v>3</v>
       </c>
-      <c r="R9" t="s">
-        <v>2</v>
-      </c>
       <c r="S9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s">
         <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
         <v>87</v>
       </c>
       <c r="W9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X9" t="s">
         <v>87</v>
       </c>
       <c r="Y9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="s">
         <v>87</v>
       </c>
       <c r="AA9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="s">
         <v>87</v>
       </c>
       <c r="AC9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
       <c r="K10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
         <v>3</v>
       </c>
-      <c r="M10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" t="s">
-        <v>2</v>
-      </c>
       <c r="P10" t="s">
         <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s">
         <v>87</v>
       </c>
       <c r="U10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10" t="s">
         <v>87</v>
       </c>
       <c r="W10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" t="s">
         <v>87</v>
       </c>
       <c r="AA10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s">
+        <v>87</v>
+      </c>
+      <c r="U11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" t="s">
-        <v>3</v>
-      </c>
-      <c r="T11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" t="s">
-        <v>2</v>
-      </c>
       <c r="V11" t="s">
         <v>87</v>
       </c>
       <c r="W11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X11" t="s">
         <v>87</v>
@@ -1951,22 +2267,28 @@
         <v>87</v>
       </c>
       <c r="Z11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11" t="s">
         <v>87</v>
       </c>
       <c r="AD11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1985,93 +2307,99 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2080,73 +2408,73 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
       <c r="P2" t="s">
         <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V2" t="s">
         <v>87</v>
       </c>
       <c r="W2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="s">
         <v>87</v>
@@ -2155,42 +2483,48 @@
         <v>87</v>
       </c>
       <c r="AA2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="s">
         <v>87</v>
       </c>
       <c r="AE2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>87</v>
@@ -2202,10 +2536,10 @@
         <v>87</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
         <v>87</v>
@@ -2214,93 +2548,99 @@
         <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
         <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Y3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Z3" t="s">
         <v>87</v>
       </c>
       <c r="AA3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AC3" t="s">
         <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
         <v>87</v>
@@ -2309,31 +2649,31 @@
         <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T4" t="s">
         <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V4" t="s">
         <v>87</v>
       </c>
       <c r="W4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X4" t="s">
         <v>87</v>
@@ -2342,60 +2682,66 @@
         <v>87</v>
       </c>
       <c r="Z4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
         <v>87</v>
@@ -2410,49 +2756,55 @@
         <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="R5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
         <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="s">
         <v>87</v>
       </c>
       <c r="AA5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="s">
         <v>87</v>
       </c>
       <c r="AE5" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -2460,22 +2812,22 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -2484,13 +2836,13 @@
         <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6" t="s">
         <v>87</v>
@@ -2502,28 +2854,28 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="T6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X6" t="s">
         <v>87</v>
@@ -2532,93 +2884,99 @@
         <v>87</v>
       </c>
       <c r="Z6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="s">
         <v>87</v>
       </c>
       <c r="AD6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="s">
         <v>87</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
         <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s">
         <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T7" t="s">
         <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V7" t="s">
         <v>87</v>
       </c>
       <c r="W7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X7" t="s">
         <v>87</v>
@@ -2627,60 +2985,66 @@
         <v>87</v>
       </c>
       <c r="Z7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AA7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="s">
         <v>87</v>
       </c>
       <c r="AD7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AE7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
         <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
         <v>87</v>
@@ -2689,34 +3053,34 @@
         <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T8" t="s">
         <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="W8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="s">
         <v>87</v>
@@ -2725,19 +3089,25 @@
         <v>87</v>
       </c>
       <c r="AA8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="s">
         <v>87</v>
       </c>
       <c r="AC8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AD8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -2745,132 +3115,138 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>87</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="s">
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="R9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T9" t="s">
         <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="V9" t="s">
         <v>87</v>
       </c>
       <c r="W9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X9" t="s">
         <v>87</v>
       </c>
       <c r="Y9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Z9" t="s">
         <v>87</v>
       </c>
       <c r="AA9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="s">
         <v>87</v>
       </c>
       <c r="AC9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AE9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
         <v>87</v>
@@ -2879,126 +3255,132 @@
         <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
         <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T10" t="s">
         <v>87</v>
       </c>
       <c r="U10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V10" t="s">
         <v>87</v>
       </c>
       <c r="W10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="s">
         <v>87</v>
       </c>
       <c r="AA10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M11" t="s">
         <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="s">
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Q11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="T11" t="s">
         <v>87</v>
       </c>
       <c r="U11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V11" t="s">
         <v>87</v>
       </c>
       <c r="W11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="X11" t="s">
         <v>87</v>
@@ -3007,22 +3389,28 @@
         <v>87</v>
       </c>
       <c r="Z11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="s">
         <v>87</v>
       </c>
       <c r="AD11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3041,93 +3429,99 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3136,73 +3530,73 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
         <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P2" t="s">
         <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V2" t="s">
         <v>87</v>
       </c>
       <c r="W2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="s">
         <v>87</v>
@@ -3211,152 +3605,164 @@
         <v>87</v>
       </c>
       <c r="AA2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="s">
         <v>87</v>
       </c>
       <c r="AE2" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
       <c r="P3" t="s">
         <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V3" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="W3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="s">
         <v>87</v>
       </c>
       <c r="AA3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="s">
         <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
         <v>87</v>
@@ -3365,31 +3771,31 @@
         <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="T4" t="s">
         <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V4" t="s">
         <v>87</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="X4" t="s">
         <v>87</v>
@@ -3398,60 +3804,66 @@
         <v>87</v>
       </c>
       <c r="Z4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AA4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AE4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>87</v>
@@ -3466,49 +3878,55 @@
         <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X5" t="s">
         <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Z5" t="s">
         <v>87</v>
       </c>
       <c r="AA5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AD5" t="s">
         <v>87</v>
       </c>
       <c r="AE5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -3516,22 +3934,22 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -3540,13 +3958,13 @@
         <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
         <v>87</v>
@@ -3558,28 +3976,28 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="U6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X6" t="s">
         <v>87</v>
@@ -3588,93 +4006,99 @@
         <v>87</v>
       </c>
       <c r="Z6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="s">
         <v>87</v>
       </c>
       <c r="AD6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="s">
         <v>87</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
         <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
         <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T7" t="s">
         <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V7" t="s">
         <v>87</v>
       </c>
       <c r="W7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X7" t="s">
         <v>87</v>
@@ -3683,60 +4107,66 @@
         <v>87</v>
       </c>
       <c r="Z7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="s">
         <v>87</v>
       </c>
       <c r="AD7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
         <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>87</v>
@@ -3745,34 +4175,34 @@
         <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T8" t="s">
         <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="s">
         <v>87</v>
@@ -3781,19 +4211,25 @@
         <v>87</v>
       </c>
       <c r="AA8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="s">
         <v>87</v>
       </c>
       <c r="AC8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -3801,132 +4237,138 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
         <v>87</v>
       </c>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="s">
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Q9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="T9" t="s">
         <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="V9" t="s">
         <v>87</v>
       </c>
       <c r="W9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X9" t="s">
         <v>87</v>
       </c>
       <c r="Y9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="s">
         <v>87</v>
       </c>
       <c r="AA9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB9" t="s">
         <v>87</v>
       </c>
       <c r="AC9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
         <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
         <v>87</v>
@@ -3935,126 +4377,132 @@
         <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
         <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T10" t="s">
         <v>87</v>
       </c>
       <c r="U10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V10" t="s">
         <v>87</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="X10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Y10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Z10" t="s">
         <v>87</v>
       </c>
       <c r="AA10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AC10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="M11" t="s">
         <v>87</v>
       </c>
       <c r="N11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="s">
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T11" t="s">
         <v>87</v>
       </c>
       <c r="U11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V11" t="s">
         <v>87</v>
       </c>
       <c r="W11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X11" t="s">
         <v>87</v>
@@ -4063,22 +4511,28 @@
         <v>87</v>
       </c>
       <c r="Z11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AC11" t="s">
         <v>87</v>
       </c>
       <c r="AD11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4097,93 +4551,99 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4192,73 +4652,73 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
         <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
         <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
         <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" t="s">
         <v>87</v>
       </c>
       <c r="W2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="s">
         <v>87</v>
@@ -4267,247 +4727,265 @@
         <v>87</v>
       </c>
       <c r="AA2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="s">
         <v>87</v>
       </c>
       <c r="AE2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="R3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>11</v>
-      </c>
       <c r="AB3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="s">
         <v>87</v>
       </c>
       <c r="AD3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>11</v>
-      </c>
       <c r="AC4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>87</v>
@@ -4522,49 +5000,55 @@
         <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X5" t="s">
         <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="s">
         <v>87</v>
       </c>
       <c r="AA5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="s">
         <v>87</v>
       </c>
       <c r="AE5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -4572,22 +5056,22 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
         <v>87</v>
@@ -4596,13 +5080,13 @@
         <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6" t="s">
         <v>87</v>
@@ -4614,28 +5098,28 @@
         <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="S6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="s">
         <v>87</v>
@@ -4644,93 +5128,99 @@
         <v>87</v>
       </c>
       <c r="Z6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="s">
         <v>87</v>
       </c>
       <c r="AD6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="s">
         <v>87</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
         <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
         <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T7" t="s">
         <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V7" t="s">
         <v>87</v>
       </c>
       <c r="W7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X7" t="s">
         <v>87</v>
@@ -4739,60 +5229,66 @@
         <v>87</v>
       </c>
       <c r="Z7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="s">
         <v>87</v>
       </c>
       <c r="AD7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
       <c r="H8" t="s">
         <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
         <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>87</v>
@@ -4801,34 +5297,34 @@
         <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T8" t="s">
         <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="s">
         <v>87</v>
@@ -4837,19 +5333,25 @@
         <v>87</v>
       </c>
       <c r="AA8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="s">
         <v>87</v>
       </c>
       <c r="AC8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -4857,132 +5359,138 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="M9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
+      <c r="S9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" t="s">
-        <v>87</v>
-      </c>
-      <c r="P9" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" t="s">
-        <v>87</v>
-      </c>
-      <c r="U9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W9" t="s">
-        <v>11</v>
-      </c>
       <c r="X9" t="s">
         <v>87</v>
       </c>
       <c r="Y9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="s">
         <v>87</v>
       </c>
       <c r="AA9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="s">
         <v>87</v>
       </c>
       <c r="AC9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
         <v>87</v>
@@ -4991,150 +5499,162 @@
         <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="P10" t="s">
         <v>87</v>
       </c>
       <c r="Q10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="s">
         <v>13</v>
       </c>
-      <c r="S10" t="s">
-        <v>11</v>
-      </c>
-      <c r="T10" t="s">
-        <v>87</v>
-      </c>
-      <c r="U10" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" t="s">
-        <v>10</v>
-      </c>
-      <c r="X10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>11</v>
-      </c>
       <c r="AD10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>87</v>
       </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>87</v>
+      </c>
+      <c r="U11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" t="s">
+        <v>87</v>
+      </c>
+      <c r="W11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" t="s">
-        <v>87</v>
-      </c>
-      <c r="W11" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>11</v>
-      </c>
       <c r="AE11" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5153,49 +5673,49 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>95</v>
-      </c>
-      <c r="P1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
@@ -5206,196 +5726,196 @@
         <v>87</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -5403,149 +5923,149 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O7" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -5553,149 +6073,149 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
         <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5714,186 +6234,1044 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>135</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U1" t="s">
+        <v>147</v>
+      </c>
+      <c r="V1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W1" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" t="s">
-        <v>166</v>
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="J2" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="V2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>182</v>
+      </c>
+      <c r="X2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" t="s">
-        <v>167</v>
+        <v>26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="T3" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="V3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>183</v>
+      </c>
+      <c r="X3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="V4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>184</v>
+      </c>
+      <c r="X4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
+        <v>27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="V5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>185</v>
+      </c>
+      <c r="X5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>170</v>
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>186</v>
+      </c>
+      <c r="X6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" t="s">
-        <v>171</v>
+        <v>24</v>
+      </c>
+      <c r="C7" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="J7" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="T7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="V7" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>187</v>
+      </c>
+      <c r="X7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" t="s">
-        <v>172</v>
+        <v>28</v>
+      </c>
+      <c r="C8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="V8" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>158</v>
+      </c>
+      <c r="X8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" t="s">
-        <v>173</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="J9" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="T9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="V9" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>188</v>
+      </c>
+      <c r="X9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" t="s">
-        <v>174</v>
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.6363636363636365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" t="s">
+        <v>180</v>
+      </c>
+      <c r="N10" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="T10" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>189</v>
+      </c>
+      <c r="X10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="T11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="V11" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>163</v>
+      </c>
+      <c r="X11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="261">
   <si>
     <t>Team</t>
   </si>
@@ -651,6 +651,9 @@
     <t>Total Goals</t>
   </si>
   <si>
+    <t>Team against</t>
+  </si>
+  <si>
     <t>Airdrie Utd,W W L W W W</t>
   </si>
   <si>
@@ -769,6 +772,36 @@
   </si>
   <si>
     <t>Peterhead,3 1 3 4 3 5</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,Forfar East Fife Partick Montrose Cove Rangers Falkirk</t>
+  </si>
+  <si>
+    <t>Clyde,Dumbarton Forfar Peterhead Forfar Dumbarton East Fife</t>
+  </si>
+  <si>
+    <t>Cove Rangers,Falkirk Montrose Falkirk Partick Montrose Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Dumbarton,Clyde Partick East Fife Forfar Clyde Peterhead</t>
+  </si>
+  <si>
+    <t>East Fife,Peterhead Airdrie Utd Dumbarton Peterhead Forfar Clyde</t>
+  </si>
+  <si>
+    <t>Falkirk,Cove Rangers Peterhead Cove Rangers Partick Montrose Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Forfar,Airdrie Utd Clyde Dumbarton Clyde Peterhead East Fife</t>
+  </si>
+  <si>
+    <t>Montrose,Partick Cove Rangers Airdrie Utd Cove Rangers Falkirk Partick</t>
+  </si>
+  <si>
+    <t>Partick,Montrose Dumbarton Airdrie Utd Cove Rangers Falkirk Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead,East Fife Falkirk Clyde East Fife Forfar Dumbarton</t>
   </si>
 </sst>
 </file>
@@ -7103,22 +7136,28 @@
       <c r="E1" t="s">
         <v>209</v>
       </c>
+      <c r="F1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="F2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="3">
@@ -7126,16 +7165,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="F3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4">
@@ -7143,16 +7185,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5">
@@ -7160,16 +7205,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="F5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6">
@@ -7177,16 +7225,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="F6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7">
@@ -7194,16 +7245,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="F7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="8">
@@ -7211,16 +7265,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="F8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="9">
@@ -7228,16 +7285,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10">
@@ -7245,16 +7305,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="F10" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="11">
@@ -7262,16 +7325,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="F11" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -684,94 +684,94 @@
     <t>Peterhead,L W W W L L</t>
   </si>
   <si>
-    <t>Airdrie Utd,3 2 0 2 2 2</t>
-  </si>
-  <si>
-    <t>Clyde,0 3 0 1 2 2</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2 0 2 2 2 0</t>
-  </si>
-  <si>
-    <t>Dumbarton,1 0 1 1 0 3</t>
-  </si>
-  <si>
-    <t>East Fife,2 0 2 1 3 1</t>
-  </si>
-  <si>
-    <t>Falkirk,0 0 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Forfar,1 1 0 2 2 2</t>
-  </si>
-  <si>
-    <t>Montrose,0 1 1 0 2 3</t>
-  </si>
-  <si>
-    <t>Partick,5 2 1 2 5 2</t>
-  </si>
-  <si>
-    <t>Peterhead,1 1 3 3 1 2</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,1 0 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Clyde,1 1 3 2 0 1</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 1 2 2 0 2</t>
-  </si>
-  <si>
-    <t>Dumbarton,0 2 2 0 2 2</t>
-  </si>
-  <si>
-    <t>East Fife,1 2 1 3 2 2</t>
-  </si>
-  <si>
-    <t>Falkirk,2 1 2 5 2 2</t>
-  </si>
-  <si>
-    <t>Forfar,3 3 1 1 1 3</t>
-  </si>
-  <si>
-    <t>Montrose,5 0 2 2 1 2</t>
-  </si>
-  <si>
-    <t>Partick,0 0 0 2 0 3</t>
-  </si>
-  <si>
-    <t>Peterhead,2 0 0 1 2 3</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,4 2 1 3 2 2</t>
-  </si>
-  <si>
-    <t>Clyde,1 4 3 3 2 3</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2 1 4 4 2 2</t>
-  </si>
-  <si>
-    <t>Dumbarton,1 2 3 1 2 5</t>
-  </si>
-  <si>
-    <t>East Fife,3 2 3 4 5 3</t>
-  </si>
-  <si>
-    <t>Falkirk,2 1 4 5 3 2</t>
-  </si>
-  <si>
-    <t>Forfar,4 4 1 3 3 5</t>
-  </si>
-  <si>
-    <t>Montrose,5 1 3 2 3 5</t>
-  </si>
-  <si>
-    <t>Partick,5 2 1 4 5 5</t>
-  </si>
-  <si>
-    <t>Peterhead,3 1 3 4 3 5</t>
+    <t>Airdrie Utd,3 2 0 2 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Clyde,0 3 0 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 0 2 2 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Dumbarton,1 0 1 1 0 3,(6)</t>
+  </si>
+  <si>
+    <t>East Fife,2 0 2 1 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Falkirk,0 0 2 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Forfar,1 1 0 2 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Montrose,0 1 1 0 2 3,(7)</t>
+  </si>
+  <si>
+    <t>Partick,5 2 1 2 5 2,(17)</t>
+  </si>
+  <si>
+    <t>Peterhead,1 1 3 3 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,1 0 1 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Clyde,1 1 3 2 0 1,(8)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,0 1 2 2 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Dumbarton,0 2 2 0 2 2,(8)</t>
+  </si>
+  <si>
+    <t>East Fife,1 2 1 3 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Falkirk,2 1 2 5 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Forfar,3 3 1 1 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Montrose,5 0 2 2 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Partick,0 0 0 2 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 0 0 1 2 3,(8)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,4 2 1 3 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Clyde,1 4 3 3 2 3,(16)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 1 4 4 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Dumbarton,1 2 3 1 2 5,(14)</t>
+  </si>
+  <si>
+    <t>East Fife,3 2 3 4 5 3,(20)</t>
+  </si>
+  <si>
+    <t>Falkirk,2 1 4 5 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Forfar,4 4 1 3 3 5,(20)</t>
+  </si>
+  <si>
+    <t>Montrose,5 1 3 2 3 5,(19)</t>
+  </si>
+  <si>
+    <t>Partick,5 2 1 4 5 5,(22)</t>
+  </si>
+  <si>
+    <t>Peterhead,3 1 3 4 3 5,(19)</t>
   </si>
   <si>
     <t>Airdrie Utd,Forfar East Fife Partick Montrose Cove Rangers Falkirk</t>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -618,214 +618,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Airdrie Utd,D W W L W W</t>
-  </si>
-  <si>
-    <t>Alloa,W L W D L L</t>
-  </si>
-  <si>
-    <t>Clyde,W L D W L L</t>
-  </si>
-  <si>
-    <t>Cove Rangers,L D W W W L</t>
-  </si>
-  <si>
-    <t>Dumbarton,W W W D L L</t>
-  </si>
-  <si>
-    <t>East Fife,W L L L L W</t>
-  </si>
-  <si>
-    <t>Falkirk,L L L D W L</t>
-  </si>
-  <si>
-    <t>Montrose,L D L D D W</t>
-  </si>
-  <si>
-    <t>Peterhead,L W L L W W</t>
-  </si>
-  <si>
-    <t>Queens Park,W D D W D W</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0 2 3 0 2 3,(10)</t>
-  </si>
-  <si>
-    <t>Alloa,2 1 2 1 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Clyde,2 2 2 2 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 1 1 1 3 2,(9)</t>
-  </si>
-  <si>
-    <t>Dumbarton,2 5 2 1 0 0,(10)</t>
-  </si>
-  <si>
-    <t>East Fife,3 0 0 0 1 4,(8)</t>
-  </si>
-  <si>
-    <t>Falkirk,0 0 1 2 2 0,(5)</t>
-  </si>
-  <si>
-    <t>Montrose,1 1 0 2 1 5,(10)</t>
-  </si>
-  <si>
-    <t>Peterhead,0 3 0 2 5 4,(14)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 0 2 3 1 3,(10)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0 1 0 1 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Alloa,0 2 0 1 3 4,(10)</t>
-  </si>
-  <si>
-    <t>Clyde,1 3 2 0 2 5,(13)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2 1 0 0 1 4,(8)</t>
-  </si>
-  <si>
-    <t>Dumbarton,1 0 1 1 5 3,(11)</t>
-  </si>
-  <si>
-    <t>East Fife,0 5 3 2 2 2,(14)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 2 2 2 1 3,(11)</t>
-  </si>
-  <si>
-    <t>Montrose,2 1 2 2 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Peterhead,3 2 1 3 0 2,(11)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 0 2 2 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0 3 3 1 3 3,(13)</t>
-  </si>
-  <si>
-    <t>Alloa,2 3 2 2 4 6,(19)</t>
-  </si>
-  <si>
-    <t>Clyde,3 5 4 2 3 5,(22)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,3 2 1 1 4 6,(17)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 5 3 2 5 3,(21)</t>
-  </si>
-  <si>
-    <t>East Fife,3 5 3 2 3 6,(22)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 2 3 4 3 3,(16)</t>
-  </si>
-  <si>
-    <t>Montrose,3 2 2 4 2 5,(18)</t>
-  </si>
-  <si>
-    <t>Peterhead,3 5 1 5 5 6,(25)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 0 4 5 2 3,(15)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0-0 2-1 3-0 1-0 2-1 0-3</t>
-  </si>
-  <si>
-    <t>Alloa,2-0 2-1 0-2 1-1 1-3 2-4</t>
-  </si>
-  <si>
-    <t>Clyde,2-1 3-2 2-2 0-2 2-1 0-5</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2-1 1-1 0-1 1-0 1-3 4-2</t>
-  </si>
-  <si>
-    <t>Dumbarton,1-2 5-0 1-2 1-1 5-0 0-3</t>
-  </si>
-  <si>
-    <t>East Fife,3-0 5-0 3-0 0-2 2-1 4-2</t>
-  </si>
-  <si>
-    <t>Falkirk,0-1 2-0 1-2 2-2 2-1 0-3</t>
-  </si>
-  <si>
-    <t>Montrose,1-2 1-1 0-2 2-2 1-1 0-5</t>
-  </si>
-  <si>
-    <t>Peterhead,3-0 3-2 0-1 3-2 5-0 2-4</t>
-  </si>
-  <si>
-    <t>Queens Park,0-1 0-0 2-2 3-2 1-1 0-3</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0 1 3 -1 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Alloa,2 -1 2 0 -2 -2,(-1)</t>
-  </si>
-  <si>
-    <t>Clyde,1 -1 0 2 -1 -5,(-4)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,-1 0 1 1 2 -2,(1)</t>
-  </si>
-  <si>
-    <t>Dumbarton,1 5 1 0 -5 -3,(-1)</t>
-  </si>
-  <si>
-    <t>East Fife,3 -5 -3 -2 -1 2,(-6)</t>
-  </si>
-  <si>
-    <t>Falkirk,-1 -2 -1 0 1 -3,(-6)</t>
-  </si>
-  <si>
-    <t>Montrose,-1 0 -2 0 0 5,(2)</t>
-  </si>
-  <si>
-    <t>Peterhead,-3 1 -1 -1 5 2,(3)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 0 0 1 0 3,(5)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,Queens Park(1) Alloa(8) East Fife(10) Cove Rangers(3) Clyde(9) Falkirk(6)</t>
-  </si>
-  <si>
-    <t>Alloa,Falkirk(6) Airdrie Utd(2) Montrose(4) Dumbarton(5) Cove Rangers(3) Peterhead(7)</t>
-  </si>
-  <si>
-    <t>Clyde,Cove Rangers(3) Peterhead(7) Queens Park(1) East Fife(10) Airdrie Utd(2) Montrose(4)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,Clyde(9) Montrose(4) Peterhead(7) Airdrie Utd(2) Alloa(8) East Fife(10)</t>
-  </si>
-  <si>
-    <t>Dumbarton,Montrose(4) East Fife(10) Falkirk(6) Alloa(8) Peterhead(7) Queens Park(1)</t>
-  </si>
-  <si>
-    <t>East Fife,Peterhead(7) Dumbarton(5) Airdrie Utd(2) Clyde(9) Falkirk(6) Cove Rangers(3)</t>
-  </si>
-  <si>
-    <t>Falkirk,Queens Park(1) Alloa(8) Dumbarton(5) Montrose(4) East Fife(10) Airdrie Utd(2)</t>
-  </si>
-  <si>
-    <t>Montrose,Dumbarton(5) Cove Rangers(3) Alloa(8) Falkirk(6) Queens Park(1) Clyde(9)</t>
-  </si>
-  <si>
-    <t>Peterhead,East Fife(10) Clyde(9) Cove Rangers(3) Queens Park(1) Dumbarton(5) Alloa(8)</t>
-  </si>
-  <si>
-    <t>Queens Park,Falkirk(6) Airdrie Utd(2) Clyde(9) Peterhead(7) Montrose(4) Dumbarton(5)</t>
+    <t>Airdrie Utd,L D L W D W W L W W</t>
+  </si>
+  <si>
+    <t>Alloa,L W L D W L W D L L</t>
+  </si>
+  <si>
+    <t>Clyde,L D W L W L D W L L</t>
+  </si>
+  <si>
+    <t>Cove Rangers,D L W W L D W W W L</t>
+  </si>
+  <si>
+    <t>Dumbarton,W D L L W W W D L L</t>
+  </si>
+  <si>
+    <t>East Fife,D L L L W L L L L W</t>
+  </si>
+  <si>
+    <t>Falkirk,D W W W L L L D W L</t>
+  </si>
+  <si>
+    <t>Montrose,W D W W L D L D D W</t>
+  </si>
+  <si>
+    <t>Peterhead,W L L L L W L L W W</t>
+  </si>
+  <si>
+    <t>Queens Park,D W W D W D D W D W</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0 2 1 3 0 2 3 0 2 3,(16)</t>
+  </si>
+  <si>
+    <t>Alloa,0 3 1 1 2 1 2 1 1 2,(14)</t>
+  </si>
+  <si>
+    <t>Clyde,0 2 2 0 2 2 2 2 1 0,(13)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 0 5 3 1 1 1 1 3 2,(18)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 2 0 1 2 5 2 1 0 0,(16)</t>
+  </si>
+  <si>
+    <t>East Fife,1 1 2 0 3 0 0 0 1 4,(12)</t>
+  </si>
+  <si>
+    <t>Falkirk,1 2 2 3 0 0 1 2 2 0,(13)</t>
+  </si>
+  <si>
+    <t>Montrose,3 2 1 2 1 1 0 2 1 5,(18)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 1 0 2 0 3 0 2 5 4,(19)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 2 3 1 1 0 2 3 1 3,(17)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 2 2 2 0 1 0 1 1 0,(12)</t>
+  </si>
+  <si>
+    <t>Alloa,2 1 2 1 0 2 0 1 3 4,(16)</t>
+  </si>
+  <si>
+    <t>Clyde,3 2 1 3 1 3 2 0 2 5,(22)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 2 2 1 2 1 0 0 1 4,(14)</t>
+  </si>
+  <si>
+    <t>Dumbarton,0 2 3 3 1 0 1 1 5 3,(19)</t>
+  </si>
+  <si>
+    <t>East Fife,1 3 5 2 0 5 3 2 2 2,(25)</t>
+  </si>
+  <si>
+    <t>Falkirk,1 1 1 0 1 2 2 2 1 3,(14)</t>
+  </si>
+  <si>
+    <t>Montrose,0 2 0 0 2 1 2 2 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Peterhead,0 2 1 3 3 2 1 3 0 2,(17)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 0 0 1 0 0 2 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 4 3 5 0 3 3 1 3 3,(28)</t>
+  </si>
+  <si>
+    <t>Alloa,2 4 3 2 2 3 2 2 4 6,(30)</t>
+  </si>
+  <si>
+    <t>Clyde,3 4 3 3 3 5 4 2 3 5,(35)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 2 7 4 3 2 1 1 4 6,(32)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 4 3 4 3 5 3 2 5 3,(35)</t>
+  </si>
+  <si>
+    <t>East Fife,2 4 7 2 3 5 3 2 3 6,(37)</t>
+  </si>
+  <si>
+    <t>Falkirk,2 3 3 3 1 2 3 4 3 3,(27)</t>
+  </si>
+  <si>
+    <t>Montrose,3 4 1 2 3 2 2 4 2 5,(28)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 3 1 5 3 5 1 5 5 6,(36)</t>
+  </si>
+  <si>
+    <t>Queens Park,2 2 3 2 1 0 4 5 2 3,(24)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0-3 2-2 1-2 2-3 0-0 2-1 3-0 1-0 2-1 0-3</t>
+  </si>
+  <si>
+    <t>Alloa,2-0 3-1 2-1 1-1 2-0 2-1 0-2 1-1 1-3 2-4</t>
+  </si>
+  <si>
+    <t>Clyde,0-3 2-2 2-1 3-0 2-1 3-2 2-2 0-2 2-1 0-5</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1-1 2-0 5-2 1-3 2-1 1-1 0-1 1-0 1-3 4-2</t>
+  </si>
+  <si>
+    <t>Dumbarton,0-3 2-2 3-0 1-3 1-2 5-0 1-2 1-1 5-0 0-3</t>
+  </si>
+  <si>
+    <t>East Fife,1-1 3-1 5-2 0-2 3-0 5-0 3-0 0-2 2-1 4-2</t>
+  </si>
+  <si>
+    <t>Falkirk,1-1 2-1 1-2 3-0 0-1 2-0 1-2 2-2 2-1 0-3</t>
+  </si>
+  <si>
+    <t>Montrose,0-3 2-2 1-0 0-2 1-2 1-1 0-2 2-2 1-1 0-5</t>
+  </si>
+  <si>
+    <t>Peterhead,2-0 2-1 1-0 2-3 3-0 3-2 0-1 3-2 5-0 2-4</t>
+  </si>
+  <si>
+    <t>Queens Park,1-1 2-0 3-0 1-1 0-1 0-0 2-2 3-2 1-1 0-3</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,-3 0 -1 1 0 1 3 -1 1 3,(4)</t>
+  </si>
+  <si>
+    <t>Alloa,-2 2 -1 0 2 -1 2 0 -2 -2,(-2)</t>
+  </si>
+  <si>
+    <t>Clyde,-3 0 1 -3 1 -1 0 2 -1 -5,(-9)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,0 -2 3 2 -1 0 1 1 2 -2,(4)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 0 -3 -2 1 5 1 0 -5 -3,(-3)</t>
+  </si>
+  <si>
+    <t>East Fife,0 -2 -3 -2 3 -5 -3 -2 -1 2,(-13)</t>
+  </si>
+  <si>
+    <t>Falkirk,0 1 1 3 -1 -2 -1 0 1 -3,(-1)</t>
+  </si>
+  <si>
+    <t>Montrose,3 0 1 2 -1 0 -2 0 0 5,(8)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 -1 -1 -1 -3 1 -1 -1 5 2,(2)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 2 3 0 1 0 0 1 0 3,(10)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,Montrose(4) Dumbarton(5) Falkirk(6) Peterhead(7) Queens Park(1) Alloa(8) East Fife(10) Cove Rangers(3) Clyde(9) Falkirk(6)</t>
+  </si>
+  <si>
+    <t>Alloa,Peterhead(7) East Fife(10) Clyde(9) Queens Park(1) Falkirk(6) Airdrie Utd(2) Montrose(4) Dumbarton(5) Cove Rangers(3) Peterhead(7)</t>
+  </si>
+  <si>
+    <t>Clyde,Dumbarton(5) Montrose(4) Alloa(8) Falkirk(6) Cove Rangers(3) Peterhead(7) Queens Park(1) East Fife(10) Airdrie Utd(2) Montrose(4)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,Falkirk(6) Queens Park(1) East Fife(10) Dumbarton(5) Clyde(9) Montrose(4) Peterhead(7) Airdrie Utd(2) Alloa(8) East Fife(10)</t>
+  </si>
+  <si>
+    <t>Dumbarton,Clyde(9) Airdrie Utd(2) Queens Park(1) Cove Rangers(3) Montrose(4) East Fife(10) Falkirk(6) Alloa(8) Peterhead(7) Queens Park(1)</t>
+  </si>
+  <si>
+    <t>East Fife,Queens Park(1) Alloa(8) Cove Rangers(3) Montrose(4) Peterhead(7) Dumbarton(5) Airdrie Utd(2) Clyde(9) Falkirk(6) Cove Rangers(3)</t>
+  </si>
+  <si>
+    <t>Falkirk,Cove Rangers(3) Peterhead(7) Airdrie Utd(2) Clyde(9) Queens Park(1) Alloa(8) Dumbarton(5) Montrose(4) East Fife(10) Airdrie Utd(2)</t>
+  </si>
+  <si>
+    <t>Montrose,Airdrie Utd(2) Clyde(9) Peterhead(7) East Fife(10) Dumbarton(5) Cove Rangers(3) Alloa(8) Falkirk(6) Queens Park(1) Clyde(9)</t>
+  </si>
+  <si>
+    <t>Peterhead,Alloa(8) Falkirk(6) Montrose(4) Airdrie Utd(2) East Fife(10) Clyde(9) Cove Rangers(3) Queens Park(1) Dumbarton(5) Alloa(8)</t>
+  </si>
+  <si>
+    <t>Queens Park,East Fife(10) Cove Rangers(3) Dumbarton(5) Alloa(8) Falkirk(6) Airdrie Utd(2) Clyde(9) Peterhead(7) Montrose(4) Dumbarton(5)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -618,214 +618,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Airdrie Utd,L D L W D W W L W W</t>
-  </si>
-  <si>
-    <t>Alloa,L W L D W L W D L L</t>
-  </si>
-  <si>
-    <t>Clyde,L D W L W L D W L L</t>
-  </si>
-  <si>
-    <t>Cove Rangers,D L W W L D W W W L</t>
-  </si>
-  <si>
-    <t>Dumbarton,W D L L W W W D L L</t>
-  </si>
-  <si>
-    <t>East Fife,D L L L W L L L L W</t>
-  </si>
-  <si>
-    <t>Falkirk,D W W W L L L D W L</t>
-  </si>
-  <si>
-    <t>Montrose,W D W W L D L D D W</t>
-  </si>
-  <si>
-    <t>Peterhead,W L L L L W L L W W</t>
-  </si>
-  <si>
-    <t>Queens Park,D W W D W D D W D W</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0 2 1 3 0 2 3 0 2 3,(16)</t>
-  </si>
-  <si>
-    <t>Alloa,0 3 1 1 2 1 2 1 1 2,(14)</t>
-  </si>
-  <si>
-    <t>Clyde,0 2 2 0 2 2 2 2 1 0,(13)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 0 5 3 1 1 1 1 3 2,(18)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 2 0 1 2 5 2 1 0 0,(16)</t>
-  </si>
-  <si>
-    <t>East Fife,1 1 2 0 3 0 0 0 1 4,(12)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 2 2 3 0 0 1 2 2 0,(13)</t>
-  </si>
-  <si>
-    <t>Montrose,3 2 1 2 1 1 0 2 1 5,(18)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 1 0 2 0 3 0 2 5 4,(19)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 2 3 1 1 0 2 3 1 3,(17)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 2 2 2 0 1 0 1 1 0,(12)</t>
-  </si>
-  <si>
-    <t>Alloa,2 1 2 1 0 2 0 1 3 4,(16)</t>
-  </si>
-  <si>
-    <t>Clyde,3 2 1 3 1 3 2 0 2 5,(22)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 2 2 1 2 1 0 0 1 4,(14)</t>
-  </si>
-  <si>
-    <t>Dumbarton,0 2 3 3 1 0 1 1 5 3,(19)</t>
-  </si>
-  <si>
-    <t>East Fife,1 3 5 2 0 5 3 2 2 2,(25)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 1 1 0 1 2 2 2 1 3,(14)</t>
-  </si>
-  <si>
-    <t>Montrose,0 2 0 0 2 1 2 2 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Peterhead,0 2 1 3 3 2 1 3 0 2,(17)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 0 0 1 0 0 2 2 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 4 3 5 0 3 3 1 3 3,(28)</t>
-  </si>
-  <si>
-    <t>Alloa,2 4 3 2 2 3 2 2 4 6,(30)</t>
-  </si>
-  <si>
-    <t>Clyde,3 4 3 3 3 5 4 2 3 5,(35)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2 2 7 4 3 2 1 1 4 6,(32)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 4 3 4 3 5 3 2 5 3,(35)</t>
-  </si>
-  <si>
-    <t>East Fife,2 4 7 2 3 5 3 2 3 6,(37)</t>
-  </si>
-  <si>
-    <t>Falkirk,2 3 3 3 1 2 3 4 3 3,(27)</t>
-  </si>
-  <si>
-    <t>Montrose,3 4 1 2 3 2 2 4 2 5,(28)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 3 1 5 3 5 1 5 5 6,(36)</t>
-  </si>
-  <si>
-    <t>Queens Park,2 2 3 2 1 0 4 5 2 3,(24)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0-3 2-2 1-2 2-3 0-0 2-1 3-0 1-0 2-1 0-3</t>
-  </si>
-  <si>
-    <t>Alloa,2-0 3-1 2-1 1-1 2-0 2-1 0-2 1-1 1-3 2-4</t>
-  </si>
-  <si>
-    <t>Clyde,0-3 2-2 2-1 3-0 2-1 3-2 2-2 0-2 2-1 0-5</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1-1 2-0 5-2 1-3 2-1 1-1 0-1 1-0 1-3 4-2</t>
-  </si>
-  <si>
-    <t>Dumbarton,0-3 2-2 3-0 1-3 1-2 5-0 1-2 1-1 5-0 0-3</t>
-  </si>
-  <si>
-    <t>East Fife,1-1 3-1 5-2 0-2 3-0 5-0 3-0 0-2 2-1 4-2</t>
-  </si>
-  <si>
-    <t>Falkirk,1-1 2-1 1-2 3-0 0-1 2-0 1-2 2-2 2-1 0-3</t>
-  </si>
-  <si>
-    <t>Montrose,0-3 2-2 1-0 0-2 1-2 1-1 0-2 2-2 1-1 0-5</t>
-  </si>
-  <si>
-    <t>Peterhead,2-0 2-1 1-0 2-3 3-0 3-2 0-1 3-2 5-0 2-4</t>
-  </si>
-  <si>
-    <t>Queens Park,1-1 2-0 3-0 1-1 0-1 0-0 2-2 3-2 1-1 0-3</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,-3 0 -1 1 0 1 3 -1 1 3,(4)</t>
-  </si>
-  <si>
-    <t>Alloa,-2 2 -1 0 2 -1 2 0 -2 -2,(-2)</t>
-  </si>
-  <si>
-    <t>Clyde,-3 0 1 -3 1 -1 0 2 -1 -5,(-9)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 -2 3 2 -1 0 1 1 2 -2,(4)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 0 -3 -2 1 5 1 0 -5 -3,(-3)</t>
-  </si>
-  <si>
-    <t>East Fife,0 -2 -3 -2 3 -5 -3 -2 -1 2,(-13)</t>
-  </si>
-  <si>
-    <t>Falkirk,0 1 1 3 -1 -2 -1 0 1 -3,(-1)</t>
-  </si>
-  <si>
-    <t>Montrose,3 0 1 2 -1 0 -2 0 0 5,(8)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 -1 -1 -1 -3 1 -1 -1 5 2,(2)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 2 3 0 1 0 0 1 0 3,(10)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,Montrose(4) Dumbarton(5) Falkirk(6) Peterhead(7) Queens Park(1) Alloa(8) East Fife(10) Cove Rangers(3) Clyde(9) Falkirk(6)</t>
-  </si>
-  <si>
-    <t>Alloa,Peterhead(7) East Fife(10) Clyde(9) Queens Park(1) Falkirk(6) Airdrie Utd(2) Montrose(4) Dumbarton(5) Cove Rangers(3) Peterhead(7)</t>
-  </si>
-  <si>
-    <t>Clyde,Dumbarton(5) Montrose(4) Alloa(8) Falkirk(6) Cove Rangers(3) Peterhead(7) Queens Park(1) East Fife(10) Airdrie Utd(2) Montrose(4)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,Falkirk(6) Queens Park(1) East Fife(10) Dumbarton(5) Clyde(9) Montrose(4) Peterhead(7) Airdrie Utd(2) Alloa(8) East Fife(10)</t>
-  </si>
-  <si>
-    <t>Dumbarton,Clyde(9) Airdrie Utd(2) Queens Park(1) Cove Rangers(3) Montrose(4) East Fife(10) Falkirk(6) Alloa(8) Peterhead(7) Queens Park(1)</t>
-  </si>
-  <si>
-    <t>East Fife,Queens Park(1) Alloa(8) Cove Rangers(3) Montrose(4) Peterhead(7) Dumbarton(5) Airdrie Utd(2) Clyde(9) Falkirk(6) Cove Rangers(3)</t>
-  </si>
-  <si>
-    <t>Falkirk,Cove Rangers(3) Peterhead(7) Airdrie Utd(2) Clyde(9) Queens Park(1) Alloa(8) Dumbarton(5) Montrose(4) East Fife(10) Airdrie Utd(2)</t>
-  </si>
-  <si>
-    <t>Montrose,Airdrie Utd(2) Clyde(9) Peterhead(7) East Fife(10) Dumbarton(5) Cove Rangers(3) Alloa(8) Falkirk(6) Queens Park(1) Clyde(9)</t>
-  </si>
-  <si>
-    <t>Peterhead,Alloa(8) Falkirk(6) Montrose(4) Airdrie Utd(2) East Fife(10) Clyde(9) Cove Rangers(3) Queens Park(1) Dumbarton(5) Alloa(8)</t>
-  </si>
-  <si>
-    <t>Queens Park,East Fife(10) Cove Rangers(3) Dumbarton(5) Alloa(8) Falkirk(6) Airdrie Utd(2) Clyde(9) Peterhead(7) Montrose(4) Dumbarton(5)</t>
+    <t>Airdrie Utd,D W W L W W</t>
+  </si>
+  <si>
+    <t>Alloa,W L W D L L</t>
+  </si>
+  <si>
+    <t>Clyde,W L D W L L</t>
+  </si>
+  <si>
+    <t>Cove Rangers,L D W W W L</t>
+  </si>
+  <si>
+    <t>Dumbarton,W W W D L L</t>
+  </si>
+  <si>
+    <t>East Fife,W L L L L W</t>
+  </si>
+  <si>
+    <t>Falkirk,L L L D W L</t>
+  </si>
+  <si>
+    <t>Montrose,L D L D D W</t>
+  </si>
+  <si>
+    <t>Peterhead,L W L L W W</t>
+  </si>
+  <si>
+    <t>Queens Park,W D D W D W</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0 2 3 0 2 3,(10)</t>
+  </si>
+  <si>
+    <t>Alloa,2 1 2 1 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Clyde,2 2 2 2 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 1 1 1 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Dumbarton,2 5 2 1 0 0,(10)</t>
+  </si>
+  <si>
+    <t>East Fife,3 0 0 0 1 4,(8)</t>
+  </si>
+  <si>
+    <t>Falkirk,0 0 1 2 2 0,(5)</t>
+  </si>
+  <si>
+    <t>Montrose,1 1 0 2 1 5,(10)</t>
+  </si>
+  <si>
+    <t>Peterhead,0 3 0 2 5 4,(14)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 0 2 3 1 3,(10)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0 1 0 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Alloa,0 2 0 1 3 4,(10)</t>
+  </si>
+  <si>
+    <t>Clyde,1 3 2 0 2 5,(13)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 1 0 0 1 4,(8)</t>
+  </si>
+  <si>
+    <t>Dumbarton,1 0 1 1 5 3,(11)</t>
+  </si>
+  <si>
+    <t>East Fife,0 5 3 2 2 2,(14)</t>
+  </si>
+  <si>
+    <t>Falkirk,1 2 2 2 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Montrose,2 1 2 2 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Peterhead,3 2 1 3 0 2,(11)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 0 2 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0 3 3 1 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Alloa,2 3 2 2 4 6,(19)</t>
+  </si>
+  <si>
+    <t>Clyde,3 5 4 2 3 5,(22)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,3 2 1 1 4 6,(17)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 5 3 2 5 3,(21)</t>
+  </si>
+  <si>
+    <t>East Fife,3 5 3 2 3 6,(22)</t>
+  </si>
+  <si>
+    <t>Falkirk,1 2 3 4 3 3,(16)</t>
+  </si>
+  <si>
+    <t>Montrose,3 2 2 4 2 5,(18)</t>
+  </si>
+  <si>
+    <t>Peterhead,3 5 1 5 5 6,(25)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 0 4 5 2 3,(15)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0-0 2-1 3-0 1-0 2-1 0-3</t>
+  </si>
+  <si>
+    <t>Alloa,2-0 2-1 0-2 1-1 1-3 2-4</t>
+  </si>
+  <si>
+    <t>Clyde,2-1 3-2 2-2 0-2 2-1 0-5</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2-1 1-1 0-1 1-0 1-3 4-2</t>
+  </si>
+  <si>
+    <t>Dumbarton,1-2 5-0 1-2 1-1 5-0 0-3</t>
+  </si>
+  <si>
+    <t>East Fife,3-0 5-0 3-0 0-2 2-1 4-2</t>
+  </si>
+  <si>
+    <t>Falkirk,0-1 2-0 1-2 2-2 2-1 0-3</t>
+  </si>
+  <si>
+    <t>Montrose,1-2 1-1 0-2 2-2 1-1 0-5</t>
+  </si>
+  <si>
+    <t>Peterhead,3-0 3-2 0-1 3-2 5-0 2-4</t>
+  </si>
+  <si>
+    <t>Queens Park,0-1 0-0 2-2 3-2 1-1 0-3</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0 1 3 -1 1 3,(7)</t>
+  </si>
+  <si>
+    <t>Alloa,2 -1 2 0 -2 -2,(-1)</t>
+  </si>
+  <si>
+    <t>Clyde,1 -1 0 2 -1 -5,(-4)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,-1 0 1 1 2 -2,(1)</t>
+  </si>
+  <si>
+    <t>Dumbarton,1 5 1 0 -5 -3,(-1)</t>
+  </si>
+  <si>
+    <t>East Fife,3 -5 -3 -2 -1 2,(-6)</t>
+  </si>
+  <si>
+    <t>Falkirk,-1 -2 -1 0 1 -3,(-6)</t>
+  </si>
+  <si>
+    <t>Montrose,-1 0 -2 0 0 5,(2)</t>
+  </si>
+  <si>
+    <t>Peterhead,-3 1 -1 -1 5 2,(3)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 0 0 1 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,Queens Park(1) Alloa(8) East Fife(10) Cove Rangers(3) Clyde(9) Falkirk(6)</t>
+  </si>
+  <si>
+    <t>Alloa,Falkirk(6) Airdrie Utd(2) Montrose(4) Dumbarton(5) Cove Rangers(3) Peterhead(7)</t>
+  </si>
+  <si>
+    <t>Clyde,Cove Rangers(3) Peterhead(7) Queens Park(1) East Fife(10) Airdrie Utd(2) Montrose(4)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,Clyde(9) Montrose(4) Peterhead(7) Airdrie Utd(2) Alloa(8) East Fife(10)</t>
+  </si>
+  <si>
+    <t>Dumbarton,Montrose(4) East Fife(10) Falkirk(6) Alloa(8) Peterhead(7) Queens Park(1)</t>
+  </si>
+  <si>
+    <t>East Fife,Peterhead(7) Dumbarton(5) Airdrie Utd(2) Clyde(9) Falkirk(6) Cove Rangers(3)</t>
+  </si>
+  <si>
+    <t>Falkirk,Queens Park(1) Alloa(8) Dumbarton(5) Montrose(4) East Fife(10) Airdrie Utd(2)</t>
+  </si>
+  <si>
+    <t>Montrose,Dumbarton(5) Cove Rangers(3) Alloa(8) Falkirk(6) Queens Park(1) Clyde(9)</t>
+  </si>
+  <si>
+    <t>Peterhead,East Fife(10) Clyde(9) Cove Rangers(3) Queens Park(1) Dumbarton(5) Alloa(8)</t>
+  </si>
+  <si>
+    <t>Queens Park,Falkirk(6) Airdrie Utd(2) Clyde(9) Peterhead(7) Montrose(4) Dumbarton(5)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -651,214 +651,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Airdrie Utd,W W L W W W</t>
-  </si>
-  <si>
-    <t>Alloa,L W D L L W</t>
-  </si>
-  <si>
-    <t>Clyde,L D W L L L</t>
-  </si>
-  <si>
-    <t>Cove Rangers,D W W W L W</t>
-  </si>
-  <si>
-    <t>Dumbarton,W W D L L L</t>
-  </si>
-  <si>
-    <t>East Fife,L L L L W L</t>
-  </si>
-  <si>
-    <t>Falkirk,L L D W L D</t>
-  </si>
-  <si>
-    <t>Montrose,D L D D W W</t>
-  </si>
-  <si>
-    <t>Peterhead,W L L W W D</t>
-  </si>
-  <si>
-    <t>Queens Park,D D W D W L</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,2 3 0 2 3 3,(13)</t>
-  </si>
-  <si>
-    <t>Alloa,1 2 1 1 2 4,(11)</t>
-  </si>
-  <si>
-    <t>Clyde,2 2 2 1 0 0,(7)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 1 1 3 2 3,(11)</t>
-  </si>
-  <si>
-    <t>Dumbarton,5 2 1 0 0 2,(10)</t>
-  </si>
-  <si>
-    <t>East Fife,0 0 0 1 4 1,(6)</t>
-  </si>
-  <si>
-    <t>Falkirk,0 1 2 2 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Montrose,1 0 2 1 5 4,(13)</t>
-  </si>
-  <si>
-    <t>Peterhead,3 0 2 5 4 0,(14)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 2 3 1 3 3,(12)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,1 0 1 1 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Alloa,2 0 1 3 4 3,(13)</t>
-  </si>
-  <si>
-    <t>Clyde,3 2 0 2 5 3,(15)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 0 0 1 4 0,(6)</t>
-  </si>
-  <si>
-    <t>Dumbarton,0 1 1 5 3 3,(13)</t>
-  </si>
-  <si>
-    <t>East Fife,5 3 2 2 2 4,(18)</t>
-  </si>
-  <si>
-    <t>Falkirk,2 2 2 1 3 0,(10)</t>
-  </si>
-  <si>
-    <t>Montrose,1 2 2 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 1 3 0 2 0,(8)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 2 2 1 0 4,(9)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 3 1 3 3 5,(18)</t>
-  </si>
-  <si>
-    <t>Alloa,3 2 2 4 6 7,(24)</t>
-  </si>
-  <si>
-    <t>Clyde,5 4 2 3 5 3,(22)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2 1 1 4 6 3,(17)</t>
-  </si>
-  <si>
-    <t>Dumbarton,5 3 2 5 3 5,(23)</t>
-  </si>
-  <si>
-    <t>East Fife,5 3 2 3 6 5,(24)</t>
-  </si>
-  <si>
-    <t>Falkirk,2 3 4 3 3 0,(15)</t>
-  </si>
-  <si>
-    <t>Montrose,2 2 4 2 5 5,(20)</t>
-  </si>
-  <si>
-    <t>Peterhead,5 1 5 5 6 0,(22)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 4 5 2 3 7,(21)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,2-1 3-0 1-0 2-1 0-3 3-2</t>
-  </si>
-  <si>
-    <t>Alloa,2-1 0-2 1-1 1-3 2-4 3-4</t>
-  </si>
-  <si>
-    <t>Clyde,3-2 2-2 0-2 2-1 0-5 3-0</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1-1 0-1 1-0 1-3 4-2 3-0</t>
-  </si>
-  <si>
-    <t>Dumbarton,5-0 1-2 1-1 5-0 0-3 3-2</t>
-  </si>
-  <si>
-    <t>East Fife,5-0 3-0 0-2 2-1 4-2 4-1</t>
-  </si>
-  <si>
-    <t>Falkirk,2-0 1-2 2-2 2-1 0-3 0-0</t>
-  </si>
-  <si>
-    <t>Montrose,1-1 0-2 2-2 1-1 0-5 4-1</t>
-  </si>
-  <si>
-    <t>Peterhead,3-2 0-1 3-2 5-0 2-4 0-0</t>
-  </si>
-  <si>
-    <t>Queens Park,0-0 2-2 3-2 1-1 0-3 3-4</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,1 3 -1 1 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Alloa,-1 2 0 -2 -2 1,(-2)</t>
-  </si>
-  <si>
-    <t>Clyde,-1 0 2 -1 -5 -3,(-8)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 1 1 2 -2 3,(5)</t>
-  </si>
-  <si>
-    <t>Dumbarton,5 1 0 -5 -3 -1,(-3)</t>
-  </si>
-  <si>
-    <t>East Fife,-5 -3 -2 -1 2 -3,(-12)</t>
-  </si>
-  <si>
-    <t>Falkirk,-2 -1 0 1 -3 0,(-5)</t>
-  </si>
-  <si>
-    <t>Montrose,0 -2 0 0 5 3,(6)</t>
-  </si>
-  <si>
-    <t>Peterhead,1 -1 -1 5 2 0,(6)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 0 1 0 3 -1,(3)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,Alloa(6) East Fife(10) Cove Rangers(2) Clyde(9) Falkirk(5) Dumbarton(7)</t>
-  </si>
-  <si>
-    <t>Alloa,Airdrie Utd(1) Montrose(4) Dumbarton(7) Cove Rangers(2) Peterhead(8) Queens Park(3)</t>
-  </si>
-  <si>
-    <t>Clyde,Peterhead(8) Queens Park(3) East Fife(10) Airdrie Utd(1) Montrose(4) Cove Rangers(2)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,Montrose(4) Peterhead(8) Airdrie Utd(1) Alloa(6) East Fife(10) Clyde(9)</t>
-  </si>
-  <si>
-    <t>Dumbarton,East Fife(10) Falkirk(5) Alloa(6) Peterhead(8) Queens Park(3) Airdrie Utd(1)</t>
-  </si>
-  <si>
-    <t>East Fife,Dumbarton(7) Airdrie Utd(1) Clyde(9) Falkirk(5) Cove Rangers(2) Montrose(4)</t>
-  </si>
-  <si>
-    <t>Falkirk,Alloa(6) Dumbarton(7) Montrose(4) East Fife(10) Airdrie Utd(1) Peterhead(8)</t>
-  </si>
-  <si>
-    <t>Montrose,Cove Rangers(2) Alloa(6) Falkirk(5) Queens Park(3) Clyde(9) East Fife(10)</t>
-  </si>
-  <si>
-    <t>Peterhead,Clyde(9) Cove Rangers(2) Queens Park(3) Dumbarton(7) Alloa(6) Falkirk(5)</t>
-  </si>
-  <si>
-    <t>Queens Park,Airdrie Utd(1) Clyde(9) Peterhead(8) Montrose(4) Dumbarton(7) Alloa(6)</t>
+    <t>Airdrie Utd,L D L W D W W L W W W</t>
+  </si>
+  <si>
+    <t>Alloa,L W L D W L W D L L W</t>
+  </si>
+  <si>
+    <t>Clyde,L D W L W L D W L L L</t>
+  </si>
+  <si>
+    <t>Cove Rangers,D L W W L D W W W L W</t>
+  </si>
+  <si>
+    <t>Dumbarton,W D L L W W W D L L L</t>
+  </si>
+  <si>
+    <t>East Fife,D L L L W L L L L W L</t>
+  </si>
+  <si>
+    <t>Falkirk,D W W W L L L D W L D</t>
+  </si>
+  <si>
+    <t>Montrose,W D W W L D L D D W W</t>
+  </si>
+  <si>
+    <t>Peterhead,W L L L L W L L W W D</t>
+  </si>
+  <si>
+    <t>Queens Park,D W W D W D D W D W L</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0 2 1 3 0 2 3 0 2 3 3,(19)</t>
+  </si>
+  <si>
+    <t>Alloa,0 3 1 1 2 1 2 1 1 2 4,(18)</t>
+  </si>
+  <si>
+    <t>Clyde,0 2 2 0 2 2 2 2 1 0 0,(13)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 0 5 3 1 1 1 1 3 2 3,(21)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 2 0 1 2 5 2 1 0 0 2,(18)</t>
+  </si>
+  <si>
+    <t>East Fife,1 1 2 0 3 0 0 0 1 4 1,(13)</t>
+  </si>
+  <si>
+    <t>Falkirk,1 2 2 3 0 0 1 2 2 0 0,(13)</t>
+  </si>
+  <si>
+    <t>Montrose,3 2 1 2 1 1 0 2 1 5 4,(22)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 1 0 2 0 3 0 2 5 4 0,(19)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 2 3 1 1 0 2 3 1 3 3,(20)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 2 2 2 0 1 0 1 1 0 2,(14)</t>
+  </si>
+  <si>
+    <t>Alloa,2 1 2 1 0 2 0 1 3 4 3,(19)</t>
+  </si>
+  <si>
+    <t>Clyde,3 2 1 3 1 3 2 0 2 5 3,(25)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 2 2 1 2 1 0 0 1 4 0,(14)</t>
+  </si>
+  <si>
+    <t>Dumbarton,0 2 3 3 1 0 1 1 5 3 3,(22)</t>
+  </si>
+  <si>
+    <t>East Fife,1 3 5 2 0 5 3 2 2 2 4,(29)</t>
+  </si>
+  <si>
+    <t>Falkirk,1 1 1 0 1 2 2 2 1 3 0,(14)</t>
+  </si>
+  <si>
+    <t>Montrose,0 2 0 0 2 1 2 2 1 0 1,(11)</t>
+  </si>
+  <si>
+    <t>Peterhead,0 2 1 3 3 2 1 3 0 2 0,(17)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 0 0 1 0 0 2 2 1 0 4,(11)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 4 3 5 0 3 3 1 3 3 5,(33)</t>
+  </si>
+  <si>
+    <t>Alloa,2 4 3 2 2 3 2 2 4 6 7,(37)</t>
+  </si>
+  <si>
+    <t>Clyde,3 4 3 3 3 5 4 2 3 5 3,(38)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 2 7 4 3 2 1 1 4 6 3,(35)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 4 3 4 3 5 3 2 5 3 5,(40)</t>
+  </si>
+  <si>
+    <t>East Fife,2 4 7 2 3 5 3 2 3 6 5,(42)</t>
+  </si>
+  <si>
+    <t>Falkirk,2 3 3 3 1 2 3 4 3 3 0,(27)</t>
+  </si>
+  <si>
+    <t>Montrose,3 4 1 2 3 2 2 4 2 5 5,(33)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 3 1 5 3 5 1 5 5 6 0,(36)</t>
+  </si>
+  <si>
+    <t>Queens Park,2 2 3 2 1 0 4 5 2 3 7,(31)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0-3 2-2 1-2 2-3 0-0 2-1 3-0 1-0 2-1 0-3 3-2</t>
+  </si>
+  <si>
+    <t>Alloa,2-0 3-1 2-1 1-1 2-0 2-1 0-2 1-1 1-3 2-4 3-4</t>
+  </si>
+  <si>
+    <t>Clyde,0-3 2-2 2-1 3-0 2-1 3-2 2-2 0-2 2-1 0-5 3-0</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1-1 2-0 5-2 1-3 2-1 1-1 0-1 1-0 1-3 4-2 3-0</t>
+  </si>
+  <si>
+    <t>Dumbarton,0-3 2-2 3-0 1-3 1-2 5-0 1-2 1-1 5-0 0-3 3-2</t>
+  </si>
+  <si>
+    <t>East Fife,1-1 3-1 5-2 0-2 3-0 5-0 3-0 0-2 2-1 4-2 4-1</t>
+  </si>
+  <si>
+    <t>Falkirk,1-1 2-1 1-2 3-0 0-1 2-0 1-2 2-2 2-1 0-3 0-0</t>
+  </si>
+  <si>
+    <t>Montrose,0-3 2-2 1-0 0-2 1-2 1-1 0-2 2-2 1-1 0-5 4-1</t>
+  </si>
+  <si>
+    <t>Peterhead,2-0 2-1 1-0 2-3 3-0 3-2 0-1 3-2 5-0 2-4 0-0</t>
+  </si>
+  <si>
+    <t>Queens Park,1-1 2-0 3-0 1-1 0-1 0-0 2-2 3-2 1-1 0-3 3-4</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,-3 0 -1 1 0 1 3 -1 1 3 1,(5)</t>
+  </si>
+  <si>
+    <t>Alloa,-2 2 -1 0 2 -1 2 0 -2 -2 1,(-1)</t>
+  </si>
+  <si>
+    <t>Clyde,-3 0 1 -3 1 -1 0 2 -1 -5 -3,(-12)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,0 -2 3 2 -1 0 1 1 2 -2 3,(7)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 0 -3 -2 1 5 1 0 -5 -3 -1,(-4)</t>
+  </si>
+  <si>
+    <t>East Fife,0 -2 -3 -2 3 -5 -3 -2 -1 2 -3,(-16)</t>
+  </si>
+  <si>
+    <t>Falkirk,0 1 1 3 -1 -2 -1 0 1 -3 0,(-1)</t>
+  </si>
+  <si>
+    <t>Montrose,3 0 1 2 -1 0 -2 0 0 5 3,(11)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 -1 -1 -1 -3 1 -1 -1 5 2 0,(2)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 2 3 0 1 0 0 1 0 3 -1,(9)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,Montrose(4) Dumbarton(7) Falkirk(5) Peterhead(8) Queens Park(3) Alloa(6) East Fife(10) Cove Rangers(2) Clyde(9) Falkirk(5) Dumbarton(7)</t>
+  </si>
+  <si>
+    <t>Alloa,Peterhead(8) East Fife(10) Clyde(9) Queens Park(3) Falkirk(5) Airdrie Utd(1) Montrose(4) Dumbarton(7) Cove Rangers(2) Peterhead(8) Queens Park(3)</t>
+  </si>
+  <si>
+    <t>Clyde,Dumbarton(7) Montrose(4) Alloa(6) Falkirk(5) Cove Rangers(2) Peterhead(8) Queens Park(3) East Fife(10) Airdrie Utd(1) Montrose(4) Cove Rangers(2)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,Falkirk(5) Queens Park(3) East Fife(10) Dumbarton(7) Clyde(9) Montrose(4) Peterhead(8) Airdrie Utd(1) Alloa(6) East Fife(10) Clyde(9)</t>
+  </si>
+  <si>
+    <t>Dumbarton,Clyde(9) Airdrie Utd(1) Queens Park(3) Cove Rangers(2) Montrose(4) East Fife(10) Falkirk(5) Alloa(6) Peterhead(8) Queens Park(3) Airdrie Utd(1)</t>
+  </si>
+  <si>
+    <t>East Fife,Queens Park(3) Alloa(6) Cove Rangers(2) Montrose(4) Peterhead(8) Dumbarton(7) Airdrie Utd(1) Clyde(9) Falkirk(5) Cove Rangers(2) Montrose(4)</t>
+  </si>
+  <si>
+    <t>Falkirk,Cove Rangers(2) Peterhead(8) Airdrie Utd(1) Clyde(9) Queens Park(3) Alloa(6) Dumbarton(7) Montrose(4) East Fife(10) Airdrie Utd(1) Peterhead(8)</t>
+  </si>
+  <si>
+    <t>Montrose,Airdrie Utd(1) Clyde(9) Peterhead(8) East Fife(10) Dumbarton(7) Cove Rangers(2) Alloa(6) Falkirk(5) Queens Park(3) Clyde(9) East Fife(10)</t>
+  </si>
+  <si>
+    <t>Peterhead,Alloa(6) Falkirk(5) Montrose(4) Airdrie Utd(1) East Fife(10) Clyde(9) Cove Rangers(2) Queens Park(3) Dumbarton(7) Alloa(6) Falkirk(5)</t>
+  </si>
+  <si>
+    <t>Queens Park,East Fife(10) Cove Rangers(2) Dumbarton(7) Alloa(6) Falkirk(5) Airdrie Utd(1) Clyde(9) Peterhead(8) Montrose(4) Dumbarton(7) Alloa(6)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -651,214 +651,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Airdrie Utd,L D L W D W W L W W W</t>
-  </si>
-  <si>
-    <t>Alloa,L W L D W L W D L L W</t>
-  </si>
-  <si>
-    <t>Clyde,L D W L W L D W L L L</t>
-  </si>
-  <si>
-    <t>Cove Rangers,D L W W L D W W W L W</t>
-  </si>
-  <si>
-    <t>Dumbarton,W D L L W W W D L L L</t>
-  </si>
-  <si>
-    <t>East Fife,D L L L W L L L L W L</t>
-  </si>
-  <si>
-    <t>Falkirk,D W W W L L L D W L D</t>
-  </si>
-  <si>
-    <t>Montrose,W D W W L D L D D W W</t>
-  </si>
-  <si>
-    <t>Peterhead,W L L L L W L L W W D</t>
-  </si>
-  <si>
-    <t>Queens Park,D W W D W D D W D W L</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0 2 1 3 0 2 3 0 2 3 3,(19)</t>
-  </si>
-  <si>
-    <t>Alloa,0 3 1 1 2 1 2 1 1 2 4,(18)</t>
-  </si>
-  <si>
-    <t>Clyde,0 2 2 0 2 2 2 2 1 0 0,(13)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 0 5 3 1 1 1 1 3 2 3,(21)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 2 0 1 2 5 2 1 0 0 2,(18)</t>
-  </si>
-  <si>
-    <t>East Fife,1 1 2 0 3 0 0 0 1 4 1,(13)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 2 2 3 0 0 1 2 2 0 0,(13)</t>
-  </si>
-  <si>
-    <t>Montrose,3 2 1 2 1 1 0 2 1 5 4,(22)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 1 0 2 0 3 0 2 5 4 0,(19)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 2 3 1 1 0 2 3 1 3 3,(20)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 2 2 2 0 1 0 1 1 0 2,(14)</t>
-  </si>
-  <si>
-    <t>Alloa,2 1 2 1 0 2 0 1 3 4 3,(19)</t>
-  </si>
-  <si>
-    <t>Clyde,3 2 1 3 1 3 2 0 2 5 3,(25)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 2 2 1 2 1 0 0 1 4 0,(14)</t>
-  </si>
-  <si>
-    <t>Dumbarton,0 2 3 3 1 0 1 1 5 3 3,(22)</t>
-  </si>
-  <si>
-    <t>East Fife,1 3 5 2 0 5 3 2 2 2 4,(29)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 1 1 0 1 2 2 2 1 3 0,(14)</t>
-  </si>
-  <si>
-    <t>Montrose,0 2 0 0 2 1 2 2 1 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Peterhead,0 2 1 3 3 2 1 3 0 2 0,(17)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 0 0 1 0 0 2 2 1 0 4,(11)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 4 3 5 0 3 3 1 3 3 5,(33)</t>
-  </si>
-  <si>
-    <t>Alloa,2 4 3 2 2 3 2 2 4 6 7,(37)</t>
-  </si>
-  <si>
-    <t>Clyde,3 4 3 3 3 5 4 2 3 5 3,(38)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2 2 7 4 3 2 1 1 4 6 3,(35)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 4 3 4 3 5 3 2 5 3 5,(40)</t>
-  </si>
-  <si>
-    <t>East Fife,2 4 7 2 3 5 3 2 3 6 5,(42)</t>
-  </si>
-  <si>
-    <t>Falkirk,2 3 3 3 1 2 3 4 3 3 0,(27)</t>
-  </si>
-  <si>
-    <t>Montrose,3 4 1 2 3 2 2 4 2 5 5,(33)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 3 1 5 3 5 1 5 5 6 0,(36)</t>
-  </si>
-  <si>
-    <t>Queens Park,2 2 3 2 1 0 4 5 2 3 7,(31)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0-3 2-2 1-2 2-3 0-0 2-1 3-0 1-0 2-1 0-3 3-2</t>
-  </si>
-  <si>
-    <t>Alloa,2-0 3-1 2-1 1-1 2-0 2-1 0-2 1-1 1-3 2-4 3-4</t>
-  </si>
-  <si>
-    <t>Clyde,0-3 2-2 2-1 3-0 2-1 3-2 2-2 0-2 2-1 0-5 3-0</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1-1 2-0 5-2 1-3 2-1 1-1 0-1 1-0 1-3 4-2 3-0</t>
-  </si>
-  <si>
-    <t>Dumbarton,0-3 2-2 3-0 1-3 1-2 5-0 1-2 1-1 5-0 0-3 3-2</t>
-  </si>
-  <si>
-    <t>East Fife,1-1 3-1 5-2 0-2 3-0 5-0 3-0 0-2 2-1 4-2 4-1</t>
-  </si>
-  <si>
-    <t>Falkirk,1-1 2-1 1-2 3-0 0-1 2-0 1-2 2-2 2-1 0-3 0-0</t>
-  </si>
-  <si>
-    <t>Montrose,0-3 2-2 1-0 0-2 1-2 1-1 0-2 2-2 1-1 0-5 4-1</t>
-  </si>
-  <si>
-    <t>Peterhead,2-0 2-1 1-0 2-3 3-0 3-2 0-1 3-2 5-0 2-4 0-0</t>
-  </si>
-  <si>
-    <t>Queens Park,1-1 2-0 3-0 1-1 0-1 0-0 2-2 3-2 1-1 0-3 3-4</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,-3 0 -1 1 0 1 3 -1 1 3 1,(5)</t>
-  </si>
-  <si>
-    <t>Alloa,-2 2 -1 0 2 -1 2 0 -2 -2 1,(-1)</t>
-  </si>
-  <si>
-    <t>Clyde,-3 0 1 -3 1 -1 0 2 -1 -5 -3,(-12)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 -2 3 2 -1 0 1 1 2 -2 3,(7)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 0 -3 -2 1 5 1 0 -5 -3 -1,(-4)</t>
-  </si>
-  <si>
-    <t>East Fife,0 -2 -3 -2 3 -5 -3 -2 -1 2 -3,(-16)</t>
-  </si>
-  <si>
-    <t>Falkirk,0 1 1 3 -1 -2 -1 0 1 -3 0,(-1)</t>
-  </si>
-  <si>
-    <t>Montrose,3 0 1 2 -1 0 -2 0 0 5 3,(11)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 -1 -1 -1 -3 1 -1 -1 5 2 0,(2)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 2 3 0 1 0 0 1 0 3 -1,(9)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,Montrose(4) Dumbarton(7) Falkirk(5) Peterhead(8) Queens Park(3) Alloa(6) East Fife(10) Cove Rangers(2) Clyde(9) Falkirk(5) Dumbarton(7)</t>
-  </si>
-  <si>
-    <t>Alloa,Peterhead(8) East Fife(10) Clyde(9) Queens Park(3) Falkirk(5) Airdrie Utd(1) Montrose(4) Dumbarton(7) Cove Rangers(2) Peterhead(8) Queens Park(3)</t>
-  </si>
-  <si>
-    <t>Clyde,Dumbarton(7) Montrose(4) Alloa(6) Falkirk(5) Cove Rangers(2) Peterhead(8) Queens Park(3) East Fife(10) Airdrie Utd(1) Montrose(4) Cove Rangers(2)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,Falkirk(5) Queens Park(3) East Fife(10) Dumbarton(7) Clyde(9) Montrose(4) Peterhead(8) Airdrie Utd(1) Alloa(6) East Fife(10) Clyde(9)</t>
-  </si>
-  <si>
-    <t>Dumbarton,Clyde(9) Airdrie Utd(1) Queens Park(3) Cove Rangers(2) Montrose(4) East Fife(10) Falkirk(5) Alloa(6) Peterhead(8) Queens Park(3) Airdrie Utd(1)</t>
-  </si>
-  <si>
-    <t>East Fife,Queens Park(3) Alloa(6) Cove Rangers(2) Montrose(4) Peterhead(8) Dumbarton(7) Airdrie Utd(1) Clyde(9) Falkirk(5) Cove Rangers(2) Montrose(4)</t>
-  </si>
-  <si>
-    <t>Falkirk,Cove Rangers(2) Peterhead(8) Airdrie Utd(1) Clyde(9) Queens Park(3) Alloa(6) Dumbarton(7) Montrose(4) East Fife(10) Airdrie Utd(1) Peterhead(8)</t>
-  </si>
-  <si>
-    <t>Montrose,Airdrie Utd(1) Clyde(9) Peterhead(8) East Fife(10) Dumbarton(7) Cove Rangers(2) Alloa(6) Falkirk(5) Queens Park(3) Clyde(9) East Fife(10)</t>
-  </si>
-  <si>
-    <t>Peterhead,Alloa(6) Falkirk(5) Montrose(4) Airdrie Utd(1) East Fife(10) Clyde(9) Cove Rangers(2) Queens Park(3) Dumbarton(7) Alloa(6) Falkirk(5)</t>
-  </si>
-  <si>
-    <t>Queens Park,East Fife(10) Cove Rangers(2) Dumbarton(7) Alloa(6) Falkirk(5) Airdrie Utd(1) Clyde(9) Peterhead(8) Montrose(4) Dumbarton(7) Alloa(6)</t>
+    <t>Airdrie Utd,W W L W W W</t>
+  </si>
+  <si>
+    <t>Alloa,L W D L L W</t>
+  </si>
+  <si>
+    <t>Clyde,L D W L L L</t>
+  </si>
+  <si>
+    <t>Cove Rangers,D W W W L W</t>
+  </si>
+  <si>
+    <t>Dumbarton,W W D L L L</t>
+  </si>
+  <si>
+    <t>East Fife,L L L L W L</t>
+  </si>
+  <si>
+    <t>Falkirk,L L D W L D</t>
+  </si>
+  <si>
+    <t>Montrose,D L D D W W</t>
+  </si>
+  <si>
+    <t>Peterhead,W L L W W D</t>
+  </si>
+  <si>
+    <t>Queens Park,D D W D W L</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,2 3 0 2 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Alloa,1 2 1 1 2 4,(11)</t>
+  </si>
+  <si>
+    <t>Clyde,2 2 2 1 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 1 1 3 2 3,(11)</t>
+  </si>
+  <si>
+    <t>Dumbarton,5 2 1 0 0 2,(10)</t>
+  </si>
+  <si>
+    <t>East Fife,0 0 0 1 4 1,(6)</t>
+  </si>
+  <si>
+    <t>Falkirk,0 1 2 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Montrose,1 0 2 1 5 4,(13)</t>
+  </si>
+  <si>
+    <t>Peterhead,3 0 2 5 4 0,(14)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 2 3 1 3 3,(12)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,1 0 1 1 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Alloa,2 0 1 3 4 3,(13)</t>
+  </si>
+  <si>
+    <t>Clyde,3 2 0 2 5 3,(15)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 0 0 1 4 0,(6)</t>
+  </si>
+  <si>
+    <t>Dumbarton,0 1 1 5 3 3,(13)</t>
+  </si>
+  <si>
+    <t>East Fife,5 3 2 2 2 4,(18)</t>
+  </si>
+  <si>
+    <t>Falkirk,2 2 2 1 3 0,(10)</t>
+  </si>
+  <si>
+    <t>Montrose,1 2 2 1 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 1 3 0 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 2 2 1 0 4,(9)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 3 1 3 3 5,(18)</t>
+  </si>
+  <si>
+    <t>Alloa,3 2 2 4 6 7,(24)</t>
+  </si>
+  <si>
+    <t>Clyde,5 4 2 3 5 3,(22)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 1 1 4 6 3,(17)</t>
+  </si>
+  <si>
+    <t>Dumbarton,5 3 2 5 3 5,(23)</t>
+  </si>
+  <si>
+    <t>East Fife,5 3 2 3 6 5,(24)</t>
+  </si>
+  <si>
+    <t>Falkirk,2 3 4 3 3 0,(15)</t>
+  </si>
+  <si>
+    <t>Montrose,2 2 4 2 5 5,(20)</t>
+  </si>
+  <si>
+    <t>Peterhead,5 1 5 5 6 0,(22)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 4 5 2 3 7,(21)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,2-1 3-0 1-0 2-1 0-3 3-2</t>
+  </si>
+  <si>
+    <t>Alloa,2-1 0-2 1-1 1-3 2-4 3-4</t>
+  </si>
+  <si>
+    <t>Clyde,3-2 2-2 0-2 2-1 0-5 3-0</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1-1 0-1 1-0 1-3 4-2 3-0</t>
+  </si>
+  <si>
+    <t>Dumbarton,5-0 1-2 1-1 5-0 0-3 3-2</t>
+  </si>
+  <si>
+    <t>East Fife,5-0 3-0 0-2 2-1 4-2 4-1</t>
+  </si>
+  <si>
+    <t>Falkirk,2-0 1-2 2-2 2-1 0-3 0-0</t>
+  </si>
+  <si>
+    <t>Montrose,1-1 0-2 2-2 1-1 0-5 4-1</t>
+  </si>
+  <si>
+    <t>Peterhead,3-2 0-1 3-2 5-0 2-4 0-0</t>
+  </si>
+  <si>
+    <t>Queens Park,0-0 2-2 3-2 1-1 0-3 3-4</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,1 3 -1 1 3 1,(8)</t>
+  </si>
+  <si>
+    <t>Alloa,-1 2 0 -2 -2 1,(-2)</t>
+  </si>
+  <si>
+    <t>Clyde,-1 0 2 -1 -5 -3,(-8)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,0 1 1 2 -2 3,(5)</t>
+  </si>
+  <si>
+    <t>Dumbarton,5 1 0 -5 -3 -1,(-3)</t>
+  </si>
+  <si>
+    <t>East Fife,-5 -3 -2 -1 2 -3,(-12)</t>
+  </si>
+  <si>
+    <t>Falkirk,-2 -1 0 1 -3 0,(-5)</t>
+  </si>
+  <si>
+    <t>Montrose,0 -2 0 0 5 3,(6)</t>
+  </si>
+  <si>
+    <t>Peterhead,1 -1 -1 5 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 0 1 0 3 -1,(3)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,Alloa(6) East Fife(10) Cove Rangers(2) Clyde(9) Falkirk(5) Dumbarton(7)</t>
+  </si>
+  <si>
+    <t>Alloa,Airdrie Utd(1) Montrose(4) Dumbarton(7) Cove Rangers(2) Peterhead(8) Queens Park(3)</t>
+  </si>
+  <si>
+    <t>Clyde,Peterhead(8) Queens Park(3) East Fife(10) Airdrie Utd(1) Montrose(4) Cove Rangers(2)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,Montrose(4) Peterhead(8) Airdrie Utd(1) Alloa(6) East Fife(10) Clyde(9)</t>
+  </si>
+  <si>
+    <t>Dumbarton,East Fife(10) Falkirk(5) Alloa(6) Peterhead(8) Queens Park(3) Airdrie Utd(1)</t>
+  </si>
+  <si>
+    <t>East Fife,Dumbarton(7) Airdrie Utd(1) Clyde(9) Falkirk(5) Cove Rangers(2) Montrose(4)</t>
+  </si>
+  <si>
+    <t>Falkirk,Alloa(6) Dumbarton(7) Montrose(4) East Fife(10) Airdrie Utd(1) Peterhead(8)</t>
+  </si>
+  <si>
+    <t>Montrose,Cove Rangers(2) Alloa(6) Falkirk(5) Queens Park(3) Clyde(9) East Fife(10)</t>
+  </si>
+  <si>
+    <t>Peterhead,Clyde(9) Cove Rangers(2) Queens Park(3) Dumbarton(7) Alloa(6) Falkirk(5)</t>
+  </si>
+  <si>
+    <t>Queens Park,Airdrie Utd(1) Clyde(9) Peterhead(8) Montrose(4) Dumbarton(7) Alloa(6)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -705,214 +705,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Airdrie Utd,L D L W D W W L W W W L W W L</t>
-  </si>
-  <si>
-    <t>Alloa,L W L D W L W D L L W W D D L</t>
-  </si>
-  <si>
-    <t>Clyde,L D W L W L D W L L L L D D W</t>
-  </si>
-  <si>
-    <t>Cove Rangers,D L W W L D W W W L W D D W W</t>
-  </si>
-  <si>
-    <t>Dumbarton,W D L L W W W D L L L L D L W</t>
-  </si>
-  <si>
-    <t>East Fife,D L L L W L L L L W L W D L L</t>
-  </si>
-  <si>
-    <t>Falkirk,D W W W L L L D W L D W D W L</t>
-  </si>
-  <si>
-    <t>Montrose,W D W W L D L D D W W D D D W</t>
-  </si>
-  <si>
-    <t>Peterhead,W L L L L W L L W W D D L L W</t>
-  </si>
-  <si>
-    <t>Queens Park,D W W D W D D W D W L D D D L</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0 2 1 3 0 2 3 0 2 3 3 1 3 1 0,(24)</t>
-  </si>
-  <si>
-    <t>Alloa,0 3 1 1 2 1 2 1 1 2 4 2 1 2 1,(24)</t>
-  </si>
-  <si>
-    <t>Clyde,0 2 2 0 2 2 2 2 1 0 0 1 1 0 3,(18)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 0 5 3 1 1 1 1 3 2 3 3 0 3 2,(29)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 2 0 1 2 5 2 1 0 0 2 1 1 0 2,(22)</t>
-  </si>
-  <si>
-    <t>East Fife,1 1 2 0 3 0 0 0 1 4 1 2 1 0 1,(17)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 2 2 3 0 0 1 2 2 0 0 3 1 3 0,(20)</t>
-  </si>
-  <si>
-    <t>Montrose,3 2 1 2 1 1 0 2 1 5 4 0 0 2 1,(25)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 1 0 2 0 3 0 2 5 4 0 0 1 0 2,(22)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 2 3 1 1 0 2 3 1 3 3 3 1 0 1,(25)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 2 2 2 0 1 0 1 1 0 2 2 1 0 2,(19)</t>
-  </si>
-  <si>
-    <t>Alloa,2 1 2 1 0 2 0 1 3 4 3 1 1 2 2,(25)</t>
-  </si>
-  <si>
-    <t>Clyde,3 2 1 3 1 3 2 0 2 5 3 3 1 0 1,(30)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 2 2 1 2 1 0 0 1 4 0 3 0 0 0,(17)</t>
-  </si>
-  <si>
-    <t>Dumbarton,0 2 3 3 1 0 1 1 5 3 3 2 1 3 1,(29)</t>
-  </si>
-  <si>
-    <t>East Fife,1 3 5 2 0 5 3 2 2 2 4 1 1 1 3,(35)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 1 1 0 1 2 2 2 1 3 0 1 1 0 1,(17)</t>
-  </si>
-  <si>
-    <t>Montrose,0 2 0 0 2 1 2 2 1 0 1 0 0 2 0,(13)</t>
-  </si>
-  <si>
-    <t>Peterhead,0 2 1 3 3 2 1 3 0 2 0 0 3 3 1,(24)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 0 0 1 0 0 2 2 1 0 4 3 1 0 2,(17)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 4 3 5 0 3 3 1 3 3 5 3 4 1 2,(43)</t>
-  </si>
-  <si>
-    <t>Alloa,2 4 3 2 2 3 2 2 4 6 7 3 2 4 3,(49)</t>
-  </si>
-  <si>
-    <t>Clyde,3 4 3 3 3 5 4 2 3 5 3 4 2 0 4,(48)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2 2 7 4 3 2 1 1 4 6 3 6 0 3 2,(46)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 4 3 4 3 5 3 2 5 3 5 3 2 3 3,(51)</t>
-  </si>
-  <si>
-    <t>East Fife,2 4 7 2 3 5 3 2 3 6 5 3 2 1 4,(52)</t>
-  </si>
-  <si>
-    <t>Falkirk,2 3 3 3 1 2 3 4 3 3 0 4 2 3 1,(37)</t>
-  </si>
-  <si>
-    <t>Montrose,3 4 1 2 3 2 2 4 2 5 5 0 0 4 1,(38)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 3 1 5 3 5 1 5 5 6 0 0 4 3 3,(46)</t>
-  </si>
-  <si>
-    <t>Queens Park,2 2 3 2 1 0 4 5 2 3 7 6 2 0 3,(42)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0-3 2-2 1-2 2-3 0-0 2-1 3-0 1-0 2-1 0-3 3-2 2-1 3-1 0-1 0-2</t>
-  </si>
-  <si>
-    <t>Alloa,2-0 3-1 2-1 1-1 2-0 2-1 0-2 1-1 1-3 2-4 3-4 2-1 1-1 2-2 1-2</t>
-  </si>
-  <si>
-    <t>Clyde,0-3 2-2 2-1 3-0 2-1 3-2 2-2 0-2 2-1 0-5 3-0 1-3 1-1 0-0 3-1</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1-1 2-0 5-2 1-3 2-1 1-1 0-1 1-0 1-3 4-2 3-0 3-3 0-0 3-0 0-2</t>
-  </si>
-  <si>
-    <t>Dumbarton,0-3 2-2 3-0 1-3 1-2 5-0 1-2 1-1 5-0 0-3 3-2 2-1 1-1 0-3 1-2</t>
-  </si>
-  <si>
-    <t>East Fife,1-1 3-1 5-2 0-2 3-0 5-0 3-0 0-2 2-1 4-2 4-1 2-1 1-1 0-1 3-1</t>
-  </si>
-  <si>
-    <t>Falkirk,1-1 2-1 1-2 3-0 0-1 2-0 1-2 2-2 2-1 0-3 0-0 1-3 1-1 0-3 0-1</t>
-  </si>
-  <si>
-    <t>Montrose,0-3 2-2 1-0 0-2 1-2 1-1 0-2 2-2 1-1 0-5 4-1 0-0 0-0 2-2 0-1</t>
-  </si>
-  <si>
-    <t>Peterhead,2-0 2-1 1-0 2-3 3-0 3-2 0-1 3-2 5-0 2-4 0-0 0-0 3-1 3-0 2-1</t>
-  </si>
-  <si>
-    <t>Queens Park,1-1 2-0 3-0 1-1 0-1 0-0 2-2 3-2 1-1 0-3 3-4 3-3 1-1 0-0 2-1</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,-3 0 -1 1 0 1 3 -1 1 3 1 -1 2 1 -2,(5)</t>
-  </si>
-  <si>
-    <t>Alloa,-2 2 -1 0 2 -1 2 0 -2 -2 1 1 0 0 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Clyde,-3 0 1 -3 1 -1 0 2 -1 -5 -3 -2 0 0 2,(-12)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 -2 3 2 -1 0 1 1 2 -2 3 0 0 3 2,(12)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 0 -3 -2 1 5 1 0 -5 -3 -1 -1 0 -3 1,(-7)</t>
-  </si>
-  <si>
-    <t>East Fife,0 -2 -3 -2 3 -5 -3 -2 -1 2 -3 1 0 -1 -2,(-18)</t>
-  </si>
-  <si>
-    <t>Falkirk,0 1 1 3 -1 -2 -1 0 1 -3 0 2 0 3 -1,(3)</t>
-  </si>
-  <si>
-    <t>Montrose,3 0 1 2 -1 0 -2 0 0 5 3 0 0 0 1,(12)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 -1 -1 -1 -3 1 -1 -1 5 2 0 0 -2 -3 1,(-2)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 2 3 0 1 0 0 1 0 3 -1 0 0 0 -1,(8)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,Montrose(3) Dumbarton(7) Falkirk(5) Peterhead(8) Queens Park(4) Alloa(6) East Fife(10) Cove Rangers(1) Clyde(9) Falkirk(5) Dumbarton(7) Alloa(6) Peterhead(8) East Fife(10) Cove Rangers(1)</t>
-  </si>
-  <si>
-    <t>Alloa,Peterhead(8) East Fife(10) Clyde(9) Queens Park(4) Falkirk(5) Airdrie Utd(2) Montrose(3) Dumbarton(7) Cove Rangers(1) Peterhead(8) Queens Park(4) Airdrie Utd(2) Falkirk(5) Montrose(3) Dumbarton(7)</t>
-  </si>
-  <si>
-    <t>Clyde,Dumbarton(7) Montrose(3) Alloa(6) Falkirk(5) Cove Rangers(1) Peterhead(8) Queens Park(4) East Fife(10) Airdrie Utd(2) Montrose(3) Cove Rangers(1) Falkirk(5) Dumbarton(7) Queens Park(4) East Fife(10)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,Falkirk(5) Queens Park(4) East Fife(10) Dumbarton(7) Clyde(9) Montrose(3) Peterhead(8) Airdrie Utd(2) Alloa(6) East Fife(10) Clyde(9) Queens Park(4) Montrose(3) Peterhead(8) Airdrie Utd(2)</t>
-  </si>
-  <si>
-    <t>Dumbarton,Clyde(9) Airdrie Utd(2) Queens Park(4) Cove Rangers(1) Montrose(3) East Fife(10) Falkirk(5) Alloa(6) Peterhead(8) Queens Park(4) Airdrie Utd(2) East Fife(10) Clyde(9) Falkirk(5) Alloa(6)</t>
-  </si>
-  <si>
-    <t>East Fife,Queens Park(4) Alloa(6) Cove Rangers(1) Montrose(3) Peterhead(8) Dumbarton(7) Airdrie Utd(2) Clyde(9) Falkirk(5) Cove Rangers(1) Montrose(3) Dumbarton(7) Queens Park(4) Airdrie Utd(2) Clyde(9)</t>
-  </si>
-  <si>
-    <t>Falkirk,Cove Rangers(1) Peterhead(8) Airdrie Utd(2) Clyde(9) Queens Park(4) Alloa(6) Dumbarton(7) Montrose(3) East Fife(10) Airdrie Utd(2) Peterhead(8) Clyde(9) Alloa(6) Dumbarton(7) Montrose(3)</t>
-  </si>
-  <si>
-    <t>Montrose,Airdrie Utd(2) Clyde(9) Peterhead(8) East Fife(10) Dumbarton(7) Cove Rangers(1) Alloa(6) Falkirk(5) Queens Park(4) Clyde(9) East Fife(10) Peterhead(8) Cove Rangers(1) Alloa(6) Falkirk(5)</t>
-  </si>
-  <si>
-    <t>Peterhead,Alloa(6) Falkirk(5) Montrose(3) Airdrie Utd(2) East Fife(10) Clyde(9) Cove Rangers(1) Queens Park(4) Dumbarton(7) Alloa(6) Falkirk(5) Montrose(3) Airdrie Utd(2) Cove Rangers(1) Queens Park(4)</t>
-  </si>
-  <si>
-    <t>Queens Park,East Fife(10) Cove Rangers(1) Dumbarton(7) Alloa(6) Falkirk(5) Airdrie Utd(2) Clyde(9) Peterhead(8) Montrose(3) Dumbarton(7) Alloa(6) Cove Rangers(1) East Fife(10) Clyde(9) Peterhead(8)</t>
+    <t>Airdrie Utd,W W L W W L</t>
+  </si>
+  <si>
+    <t>Alloa,L W W D D L</t>
+  </si>
+  <si>
+    <t>Clyde,L L L D D W</t>
+  </si>
+  <si>
+    <t>Cove Rangers,L W D D W W</t>
+  </si>
+  <si>
+    <t>Dumbarton,L L L D L W</t>
+  </si>
+  <si>
+    <t>East Fife,W L W D L L</t>
+  </si>
+  <si>
+    <t>Falkirk,L D W D W L</t>
+  </si>
+  <si>
+    <t>Montrose,W W D D D W</t>
+  </si>
+  <si>
+    <t>Peterhead,W D D L L W</t>
+  </si>
+  <si>
+    <t>Queens Park,W L D D D L</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 3 1 3 1 0,(11)</t>
+  </si>
+  <si>
+    <t>Alloa,2 4 2 1 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Clyde,0 0 1 1 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 3 3 0 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Dumbarton,0 2 1 1 0 2,(6)</t>
+  </si>
+  <si>
+    <t>East Fife,4 1 2 1 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Falkirk,0 0 3 1 3 0,(7)</t>
+  </si>
+  <si>
+    <t>Montrose,5 4 0 0 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Peterhead,4 0 0 1 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Queens Park,3 3 3 1 0 1,(11)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0 2 2 1 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Alloa,4 3 1 1 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Clyde,5 3 3 1 0 1,(13)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,4 0 3 0 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 3 2 1 3 1,(13)</t>
+  </si>
+  <si>
+    <t>East Fife,2 4 1 1 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Falkirk,3 0 1 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Montrose,0 1 0 0 2 0,(3)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 0 0 3 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 4 3 1 0 2,(10)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 5 3 4 1 2,(18)</t>
+  </si>
+  <si>
+    <t>Alloa,6 7 3 2 4 3,(25)</t>
+  </si>
+  <si>
+    <t>Clyde,5 3 4 2 0 4,(18)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,6 3 6 0 3 2,(20)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 5 3 2 3 3,(19)</t>
+  </si>
+  <si>
+    <t>East Fife,6 5 3 2 1 4,(21)</t>
+  </si>
+  <si>
+    <t>Falkirk,3 0 4 2 3 1,(13)</t>
+  </si>
+  <si>
+    <t>Montrose,5 5 0 0 4 1,(15)</t>
+  </si>
+  <si>
+    <t>Peterhead,6 0 0 4 3 3,(16)</t>
+  </si>
+  <si>
+    <t>Queens Park,3 7 6 2 0 3,(21)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0-3 3-2 2-1 3-1 0-1 0-2</t>
+  </si>
+  <si>
+    <t>Alloa,2-4 3-4 2-1 1-1 2-2 1-2</t>
+  </si>
+  <si>
+    <t>Clyde,0-5 3-0 1-3 1-1 0-0 3-1</t>
+  </si>
+  <si>
+    <t>Cove Rangers,4-2 3-0 3-3 0-0 3-0 0-2</t>
+  </si>
+  <si>
+    <t>Dumbarton,0-3 3-2 2-1 1-1 0-3 1-2</t>
+  </si>
+  <si>
+    <t>East Fife,4-2 4-1 2-1 1-1 0-1 3-1</t>
+  </si>
+  <si>
+    <t>Falkirk,0-3 0-0 1-3 1-1 0-3 0-1</t>
+  </si>
+  <si>
+    <t>Montrose,0-5 4-1 0-0 0-0 2-2 0-1</t>
+  </si>
+  <si>
+    <t>Peterhead,2-4 0-0 0-0 3-1 3-0 2-1</t>
+  </si>
+  <si>
+    <t>Queens Park,0-3 3-4 3-3 1-1 0-0 2-1</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 1 -1 2 1 -2,(4)</t>
+  </si>
+  <si>
+    <t>Alloa,-2 1 1 0 0 -1,(-1)</t>
+  </si>
+  <si>
+    <t>Clyde,-5 -3 -2 0 0 2,(-8)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,-2 3 0 0 3 2,(6)</t>
+  </si>
+  <si>
+    <t>Dumbarton,-3 -1 -1 0 -3 1,(-7)</t>
+  </si>
+  <si>
+    <t>East Fife,2 -3 1 0 -1 -2,(-3)</t>
+  </si>
+  <si>
+    <t>Falkirk,-3 0 2 0 3 -1,(1)</t>
+  </si>
+  <si>
+    <t>Montrose,5 3 0 0 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 0 0 -2 -3 1,(-2)</t>
+  </si>
+  <si>
+    <t>Queens Park,3 -1 0 0 0 -1,(1)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,Falkirk(5) Dumbarton(7) Alloa(6) Peterhead(8) East Fife(10) Cove Rangers(1)</t>
+  </si>
+  <si>
+    <t>Alloa,Peterhead(8) Queens Park(4) Airdrie Utd(2) Falkirk(5) Montrose(3) Dumbarton(7)</t>
+  </si>
+  <si>
+    <t>Clyde,Montrose(3) Cove Rangers(1) Falkirk(5) Dumbarton(7) Queens Park(4) East Fife(10)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,East Fife(10) Clyde(9) Queens Park(4) Montrose(3) Peterhead(8) Airdrie Utd(2)</t>
+  </si>
+  <si>
+    <t>Dumbarton,Queens Park(4) Airdrie Utd(2) East Fife(10) Clyde(9) Falkirk(5) Alloa(6)</t>
+  </si>
+  <si>
+    <t>East Fife,Cove Rangers(1) Montrose(3) Dumbarton(7) Queens Park(4) Airdrie Utd(2) Clyde(9)</t>
+  </si>
+  <si>
+    <t>Falkirk,Airdrie Utd(2) Peterhead(8) Clyde(9) Alloa(6) Dumbarton(7) Montrose(3)</t>
+  </si>
+  <si>
+    <t>Montrose,Clyde(9) East Fife(10) Peterhead(8) Cove Rangers(1) Alloa(6) Falkirk(5)</t>
+  </si>
+  <si>
+    <t>Peterhead,Alloa(6) Falkirk(5) Montrose(3) Airdrie Utd(2) Cove Rangers(1) Queens Park(4)</t>
+  </si>
+  <si>
+    <t>Queens Park,Dumbarton(7) Alloa(6) Cove Rangers(1) East Fife(10) Clyde(9) Peterhead(8)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -705,214 +705,214 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Airdrie Utd,W W L W W L</t>
-  </si>
-  <si>
-    <t>Alloa,L W W D D L</t>
-  </si>
-  <si>
-    <t>Clyde,L L L D D W</t>
-  </si>
-  <si>
-    <t>Cove Rangers,L W D D W W</t>
-  </si>
-  <si>
-    <t>Dumbarton,L L L D L W</t>
-  </si>
-  <si>
-    <t>East Fife,W L W D L L</t>
-  </si>
-  <si>
-    <t>Falkirk,L D W D W L</t>
-  </si>
-  <si>
-    <t>Montrose,W W D D D W</t>
-  </si>
-  <si>
-    <t>Peterhead,W D D L L W</t>
-  </si>
-  <si>
-    <t>Queens Park,W L D D D L</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 3 1 3 1 0,(11)</t>
-  </si>
-  <si>
-    <t>Alloa,2 4 2 1 2 1,(12)</t>
-  </si>
-  <si>
-    <t>Clyde,0 0 1 1 0 3,(5)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,2 3 3 0 3 2,(13)</t>
-  </si>
-  <si>
-    <t>Dumbarton,0 2 1 1 0 2,(6)</t>
-  </si>
-  <si>
-    <t>East Fife,4 1 2 1 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Falkirk,0 0 3 1 3 0,(7)</t>
-  </si>
-  <si>
-    <t>Montrose,5 4 0 0 2 1,(12)</t>
-  </si>
-  <si>
-    <t>Peterhead,4 0 0 1 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Queens Park,3 3 3 1 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0 2 2 1 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Alloa,4 3 1 1 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Clyde,5 3 3 1 0 1,(13)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,4 0 3 0 0 0,(7)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 3 2 1 3 1,(13)</t>
-  </si>
-  <si>
-    <t>East Fife,2 4 1 1 1 3,(12)</t>
-  </si>
-  <si>
-    <t>Falkirk,3 0 1 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Montrose,0 1 0 0 2 0,(3)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 0 0 3 3 1,(9)</t>
-  </si>
-  <si>
-    <t>Queens Park,0 4 3 1 0 2,(10)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 5 3 4 1 2,(18)</t>
-  </si>
-  <si>
-    <t>Alloa,6 7 3 2 4 3,(25)</t>
-  </si>
-  <si>
-    <t>Clyde,5 3 4 2 0 4,(18)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,6 3 6 0 3 2,(20)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 5 3 2 3 3,(19)</t>
-  </si>
-  <si>
-    <t>East Fife,6 5 3 2 1 4,(21)</t>
-  </si>
-  <si>
-    <t>Falkirk,3 0 4 2 3 1,(13)</t>
-  </si>
-  <si>
-    <t>Montrose,5 5 0 0 4 1,(15)</t>
-  </si>
-  <si>
-    <t>Peterhead,6 0 0 4 3 3,(16)</t>
-  </si>
-  <si>
-    <t>Queens Park,3 7 6 2 0 3,(21)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,0-3 3-2 2-1 3-1 0-1 0-2</t>
-  </si>
-  <si>
-    <t>Alloa,2-4 3-4 2-1 1-1 2-2 1-2</t>
-  </si>
-  <si>
-    <t>Clyde,0-5 3-0 1-3 1-1 0-0 3-1</t>
-  </si>
-  <si>
-    <t>Cove Rangers,4-2 3-0 3-3 0-0 3-0 0-2</t>
-  </si>
-  <si>
-    <t>Dumbarton,0-3 3-2 2-1 1-1 0-3 1-2</t>
-  </si>
-  <si>
-    <t>East Fife,4-2 4-1 2-1 1-1 0-1 3-1</t>
-  </si>
-  <si>
-    <t>Falkirk,0-3 0-0 1-3 1-1 0-3 0-1</t>
-  </si>
-  <si>
-    <t>Montrose,0-5 4-1 0-0 0-0 2-2 0-1</t>
-  </si>
-  <si>
-    <t>Peterhead,2-4 0-0 0-0 3-1 3-0 2-1</t>
-  </si>
-  <si>
-    <t>Queens Park,0-3 3-4 3-3 1-1 0-0 2-1</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 1 -1 2 1 -2,(4)</t>
-  </si>
-  <si>
-    <t>Alloa,-2 1 1 0 0 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Clyde,-5 -3 -2 0 0 2,(-8)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,-2 3 0 0 3 2,(6)</t>
-  </si>
-  <si>
-    <t>Dumbarton,-3 -1 -1 0 -3 1,(-7)</t>
-  </si>
-  <si>
-    <t>East Fife,2 -3 1 0 -1 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Falkirk,-3 0 2 0 3 -1,(1)</t>
-  </si>
-  <si>
-    <t>Montrose,5 3 0 0 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Peterhead,2 0 0 -2 -3 1,(-2)</t>
-  </si>
-  <si>
-    <t>Queens Park,3 -1 0 0 0 -1,(1)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,Falkirk(5) Dumbarton(7) Alloa(6) Peterhead(8) East Fife(10) Cove Rangers(1)</t>
-  </si>
-  <si>
-    <t>Alloa,Peterhead(8) Queens Park(4) Airdrie Utd(2) Falkirk(5) Montrose(3) Dumbarton(7)</t>
-  </si>
-  <si>
-    <t>Clyde,Montrose(3) Cove Rangers(1) Falkirk(5) Dumbarton(7) Queens Park(4) East Fife(10)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,East Fife(10) Clyde(9) Queens Park(4) Montrose(3) Peterhead(8) Airdrie Utd(2)</t>
-  </si>
-  <si>
-    <t>Dumbarton,Queens Park(4) Airdrie Utd(2) East Fife(10) Clyde(9) Falkirk(5) Alloa(6)</t>
-  </si>
-  <si>
-    <t>East Fife,Cove Rangers(1) Montrose(3) Dumbarton(7) Queens Park(4) Airdrie Utd(2) Clyde(9)</t>
-  </si>
-  <si>
-    <t>Falkirk,Airdrie Utd(2) Peterhead(8) Clyde(9) Alloa(6) Dumbarton(7) Montrose(3)</t>
-  </si>
-  <si>
-    <t>Montrose,Clyde(9) East Fife(10) Peterhead(8) Cove Rangers(1) Alloa(6) Falkirk(5)</t>
-  </si>
-  <si>
-    <t>Peterhead,Alloa(6) Falkirk(5) Montrose(3) Airdrie Utd(2) Cove Rangers(1) Queens Park(4)</t>
-  </si>
-  <si>
-    <t>Queens Park,Dumbarton(7) Alloa(6) Cove Rangers(1) East Fife(10) Clyde(9) Peterhead(8)</t>
+    <t>Airdrie Utd,L D L W D W W L W W W L W W L</t>
+  </si>
+  <si>
+    <t>Alloa,L W L D W L W D L L W W D D L</t>
+  </si>
+  <si>
+    <t>Clyde,L D W L W L D W L L L L D D W</t>
+  </si>
+  <si>
+    <t>Cove Rangers,D L W W L D W W W L W D D W W</t>
+  </si>
+  <si>
+    <t>Dumbarton,W D L L W W W D L L L L D L W</t>
+  </si>
+  <si>
+    <t>East Fife,D L L L W L L L L W L W D L L</t>
+  </si>
+  <si>
+    <t>Falkirk,D W W W L L L D W L D W D W L</t>
+  </si>
+  <si>
+    <t>Montrose,W D W W L D L D D W W D D D W</t>
+  </si>
+  <si>
+    <t>Peterhead,W L L L L W L L W W D D L L W</t>
+  </si>
+  <si>
+    <t>Queens Park,D W W D W D D W D W L D D D L</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0 2 1 3 0 2 3 0 2 3 3 1 3 1 0,(24)</t>
+  </si>
+  <si>
+    <t>Alloa,0 3 1 1 2 1 2 1 1 2 4 2 1 2 1,(24)</t>
+  </si>
+  <si>
+    <t>Clyde,0 2 2 0 2 2 2 2 1 0 0 1 1 0 3,(18)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 0 5 3 1 1 1 1 3 2 3 3 0 3 2,(29)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 2 0 1 2 5 2 1 0 0 2 1 1 0 2,(22)</t>
+  </si>
+  <si>
+    <t>East Fife,1 1 2 0 3 0 0 0 1 4 1 2 1 0 1,(17)</t>
+  </si>
+  <si>
+    <t>Falkirk,1 2 2 3 0 0 1 2 2 0 0 3 1 3 0,(20)</t>
+  </si>
+  <si>
+    <t>Montrose,3 2 1 2 1 1 0 2 1 5 4 0 0 2 1,(25)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 1 0 2 0 3 0 2 5 4 0 0 1 0 2,(22)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 2 3 1 1 0 2 3 1 3 3 3 1 0 1,(25)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 2 2 2 0 1 0 1 1 0 2 2 1 0 2,(19)</t>
+  </si>
+  <si>
+    <t>Alloa,2 1 2 1 0 2 0 1 3 4 3 1 1 2 2,(25)</t>
+  </si>
+  <si>
+    <t>Clyde,3 2 1 3 1 3 2 0 2 5 3 3 1 0 1,(30)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1 2 2 1 2 1 0 0 1 4 0 3 0 0 0,(17)</t>
+  </si>
+  <si>
+    <t>Dumbarton,0 2 3 3 1 0 1 1 5 3 3 2 1 3 1,(29)</t>
+  </si>
+  <si>
+    <t>East Fife,1 3 5 2 0 5 3 2 2 2 4 1 1 1 3,(35)</t>
+  </si>
+  <si>
+    <t>Falkirk,1 1 1 0 1 2 2 2 1 3 0 1 1 0 1,(17)</t>
+  </si>
+  <si>
+    <t>Montrose,0 2 0 0 2 1 2 2 1 0 1 0 0 2 0,(13)</t>
+  </si>
+  <si>
+    <t>Peterhead,0 2 1 3 3 2 1 3 0 2 0 0 3 3 1,(24)</t>
+  </si>
+  <si>
+    <t>Queens Park,1 0 0 1 0 0 2 2 1 0 4 3 1 0 2,(17)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,3 4 3 5 0 3 3 1 3 3 5 3 4 1 2,(43)</t>
+  </si>
+  <si>
+    <t>Alloa,2 4 3 2 2 3 2 2 4 6 7 3 2 4 3,(49)</t>
+  </si>
+  <si>
+    <t>Clyde,3 4 3 3 3 5 4 2 3 5 3 4 2 0 4,(48)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 2 7 4 3 2 1 1 4 6 3 6 0 3 2,(46)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 4 3 4 3 5 3 2 5 3 5 3 2 3 3,(51)</t>
+  </si>
+  <si>
+    <t>East Fife,2 4 7 2 3 5 3 2 3 6 5 3 2 1 4,(52)</t>
+  </si>
+  <si>
+    <t>Falkirk,2 3 3 3 1 2 3 4 3 3 0 4 2 3 1,(37)</t>
+  </si>
+  <si>
+    <t>Montrose,3 4 1 2 3 2 2 4 2 5 5 0 0 4 1,(38)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 3 1 5 3 5 1 5 5 6 0 0 4 3 3,(46)</t>
+  </si>
+  <si>
+    <t>Queens Park,2 2 3 2 1 0 4 5 2 3 7 6 2 0 3,(42)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,0-3 2-2 1-2 2-3 0-0 2-1 3-0 1-0 2-1 0-3 3-2 2-1 3-1 0-1 0-2</t>
+  </si>
+  <si>
+    <t>Alloa,2-0 3-1 2-1 1-1 2-0 2-1 0-2 1-1 1-3 2-4 3-4 2-1 1-1 2-2 1-2</t>
+  </si>
+  <si>
+    <t>Clyde,0-3 2-2 2-1 3-0 2-1 3-2 2-2 0-2 2-1 0-5 3-0 1-3 1-1 0-0 3-1</t>
+  </si>
+  <si>
+    <t>Cove Rangers,1-1 2-0 5-2 1-3 2-1 1-1 0-1 1-0 1-3 4-2 3-0 3-3 0-0 3-0 0-2</t>
+  </si>
+  <si>
+    <t>Dumbarton,0-3 2-2 3-0 1-3 1-2 5-0 1-2 1-1 5-0 0-3 3-2 2-1 1-1 0-3 1-2</t>
+  </si>
+  <si>
+    <t>East Fife,1-1 3-1 5-2 0-2 3-0 5-0 3-0 0-2 2-1 4-2 4-1 2-1 1-1 0-1 3-1</t>
+  </si>
+  <si>
+    <t>Falkirk,1-1 2-1 1-2 3-0 0-1 2-0 1-2 2-2 2-1 0-3 0-0 1-3 1-1 0-3 0-1</t>
+  </si>
+  <si>
+    <t>Montrose,0-3 2-2 1-0 0-2 1-2 1-1 0-2 2-2 1-1 0-5 4-1 0-0 0-0 2-2 0-1</t>
+  </si>
+  <si>
+    <t>Peterhead,2-0 2-1 1-0 2-3 3-0 3-2 0-1 3-2 5-0 2-4 0-0 0-0 3-1 3-0 2-1</t>
+  </si>
+  <si>
+    <t>Queens Park,1-1 2-0 3-0 1-1 0-1 0-0 2-2 3-2 1-1 0-3 3-4 3-3 1-1 0-0 2-1</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,-3 0 -1 1 0 1 3 -1 1 3 1 -1 2 1 -2,(5)</t>
+  </si>
+  <si>
+    <t>Alloa,-2 2 -1 0 2 -1 2 0 -2 -2 1 1 0 0 -1,(-1)</t>
+  </si>
+  <si>
+    <t>Clyde,-3 0 1 -3 1 -1 0 2 -1 -5 -3 -2 0 0 2,(-12)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,0 -2 3 2 -1 0 1 1 2 -2 3 0 0 3 2,(12)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 0 -3 -2 1 5 1 0 -5 -3 -1 -1 0 -3 1,(-7)</t>
+  </si>
+  <si>
+    <t>East Fife,0 -2 -3 -2 3 -5 -3 -2 -1 2 -3 1 0 -1 -2,(-18)</t>
+  </si>
+  <si>
+    <t>Falkirk,0 1 1 3 -1 -2 -1 0 1 -3 0 2 0 3 -1,(3)</t>
+  </si>
+  <si>
+    <t>Montrose,3 0 1 2 -1 0 -2 0 0 5 3 0 0 0 1,(12)</t>
+  </si>
+  <si>
+    <t>Peterhead,2 -1 -1 -1 -3 1 -1 -1 5 2 0 0 -2 -3 1,(-2)</t>
+  </si>
+  <si>
+    <t>Queens Park,0 2 3 0 1 0 0 1 0 3 -1 0 0 0 -1,(8)</t>
+  </si>
+  <si>
+    <t>Airdrie Utd,Montrose(3) Dumbarton(7) Falkirk(5) Peterhead(8) Queens Park(4) Alloa(6) East Fife(10) Cove Rangers(1) Clyde(9) Falkirk(5) Dumbarton(7) Alloa(6) Peterhead(8) East Fife(10) Cove Rangers(1)</t>
+  </si>
+  <si>
+    <t>Alloa,Peterhead(8) East Fife(10) Clyde(9) Queens Park(4) Falkirk(5) Airdrie Utd(2) Montrose(3) Dumbarton(7) Cove Rangers(1) Peterhead(8) Queens Park(4) Airdrie Utd(2) Falkirk(5) Montrose(3) Dumbarton(7)</t>
+  </si>
+  <si>
+    <t>Clyde,Dumbarton(7) Montrose(3) Alloa(6) Falkirk(5) Cove Rangers(1) Peterhead(8) Queens Park(4) East Fife(10) Airdrie Utd(2) Montrose(3) Cove Rangers(1) Falkirk(5) Dumbarton(7) Queens Park(4) East Fife(10)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,Falkirk(5) Queens Park(4) East Fife(10) Dumbarton(7) Clyde(9) Montrose(3) Peterhead(8) Airdrie Utd(2) Alloa(6) East Fife(10) Clyde(9) Queens Park(4) Montrose(3) Peterhead(8) Airdrie Utd(2)</t>
+  </si>
+  <si>
+    <t>Dumbarton,Clyde(9) Airdrie Utd(2) Queens Park(4) Cove Rangers(1) Montrose(3) East Fife(10) Falkirk(5) Alloa(6) Peterhead(8) Queens Park(4) Airdrie Utd(2) East Fife(10) Clyde(9) Falkirk(5) Alloa(6)</t>
+  </si>
+  <si>
+    <t>East Fife,Queens Park(4) Alloa(6) Cove Rangers(1) Montrose(3) Peterhead(8) Dumbarton(7) Airdrie Utd(2) Clyde(9) Falkirk(5) Cove Rangers(1) Montrose(3) Dumbarton(7) Queens Park(4) Airdrie Utd(2) Clyde(9)</t>
+  </si>
+  <si>
+    <t>Falkirk,Cove Rangers(1) Peterhead(8) Airdrie Utd(2) Clyde(9) Queens Park(4) Alloa(6) Dumbarton(7) Montrose(3) East Fife(10) Airdrie Utd(2) Peterhead(8) Clyde(9) Alloa(6) Dumbarton(7) Montrose(3)</t>
+  </si>
+  <si>
+    <t>Montrose,Airdrie Utd(2) Clyde(9) Peterhead(8) East Fife(10) Dumbarton(7) Cove Rangers(1) Alloa(6) Falkirk(5) Queens Park(4) Clyde(9) East Fife(10) Peterhead(8) Cove Rangers(1) Alloa(6) Falkirk(5)</t>
+  </si>
+  <si>
+    <t>Peterhead,Alloa(6) Falkirk(5) Montrose(3) Airdrie Utd(2) East Fife(10) Clyde(9) Cove Rangers(1) Queens Park(4) Dumbarton(7) Alloa(6) Falkirk(5) Montrose(3) Airdrie Utd(2) Cove Rangers(1) Queens Park(4)</t>
+  </si>
+  <si>
+    <t>Queens Park,East Fife(10) Cove Rangers(1) Dumbarton(7) Alloa(6) Falkirk(5) Airdrie Utd(2) Clyde(9) Peterhead(8) Montrose(3) Dumbarton(7) Alloa(6) Cove Rangers(1) East Fife(10) Clyde(9) Peterhead(8)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="294">
   <si>
     <t>Team</t>
   </si>
@@ -103,18 +103,21 @@
     <t>Clyde</t>
   </si>
   <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
     <t>Alloa</t>
   </si>
   <si>
     <t>Peterhead</t>
   </si>
   <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
     <t>East Fife</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -124,540 +127,543 @@
     <t>15</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
-    <t>30</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>sc2_teams</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>55.5</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>61.5</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>48.5</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>2.1667</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>2.3478</t>
+  </si>
+  <si>
+    <t>2.0208</t>
+  </si>
+  <si>
+    <t>X2021.07.31</t>
+  </si>
+  <si>
+    <t>X2021.08.07</t>
+  </si>
+  <si>
+    <t>X2021.08.14</t>
+  </si>
+  <si>
+    <t>X2021.08.21</t>
+  </si>
+  <si>
+    <t>X2021.08.28</t>
+  </si>
+  <si>
+    <t>X2021.09.11</t>
+  </si>
+  <si>
+    <t>X2021.09.14</t>
+  </si>
+  <si>
+    <t>X2021.09.18</t>
+  </si>
+  <si>
+    <t>X2021.09.25</t>
+  </si>
+  <si>
+    <t>X2021.10.02</t>
+  </si>
+  <si>
+    <t>X2021.10.03</t>
+  </si>
+  <si>
+    <t>X2021.10.16</t>
+  </si>
+  <si>
+    <t>X2021.10.23</t>
+  </si>
+  <si>
+    <t>X2021.10.24</t>
+  </si>
+  <si>
+    <t>X2021.10.30</t>
+  </si>
+  <si>
+    <t>X2021.11.06</t>
+  </si>
+  <si>
+    <t>X2021.11.13</t>
+  </si>
+  <si>
+    <t>X2021.11.20</t>
+  </si>
+  <si>
+    <t>X2021.12.04</t>
+  </si>
+  <si>
+    <t>X2021.12.07</t>
+  </si>
+  <si>
+    <t>X2021.12.11</t>
+  </si>
+  <si>
+    <t>X2021.12.18</t>
+  </si>
+  <si>
+    <t>X2021.12.22</t>
+  </si>
+  <si>
+    <t>X2021.12.26</t>
+  </si>
+  <si>
+    <t>X2021.12.29</t>
+  </si>
+  <si>
+    <t>X2022.01.02</t>
+  </si>
+  <si>
+    <t>X2022.01.08</t>
+  </si>
+  <si>
+    <t>X2022.01.15</t>
+  </si>
+  <si>
+    <t>X2022.01.22</t>
+  </si>
+  <si>
+    <t>X2022.01.25</t>
+  </si>
+  <si>
+    <t>X2022.01.29</t>
+  </si>
+  <si>
+    <t>X2022.02.05</t>
+  </si>
+  <si>
+    <t>X2022.02.08</t>
+  </si>
+  <si>
+    <t>X2022.02.12</t>
+  </si>
+  <si>
+    <t>sc2_hytotals</t>
+  </si>
+  <si>
+    <t>sc2_aytotals</t>
+  </si>
+  <si>
+    <t>sc2_totalyellows</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>57.5</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>69.5</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>2.9583</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.0217</t>
+  </si>
+  <si>
+    <t>2.9375</t>
+  </si>
+  <si>
+    <t>sc2_hrtotals</t>
+  </si>
+  <si>
+    <t>sc2_artotals</t>
+  </si>
+  <si>
+    <t>sc2_totalreds</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.2083</t>
+  </si>
+  <si>
+    <t>0.1304</t>
+  </si>
+  <si>
+    <t>0.1667</t>
+  </si>
+  <si>
+    <t>sc2_un05</t>
+  </si>
+  <si>
+    <t>sc2_ov05</t>
+  </si>
+  <si>
+    <t>sc2_un15</t>
+  </si>
+  <si>
+    <t>sc2_ov15</t>
+  </si>
+  <si>
+    <t>sc2_un25</t>
+  </si>
+  <si>
+    <t>sc2_ov25</t>
+  </si>
+  <si>
+    <t>sc2_un35</t>
+  </si>
+  <si>
+    <t>sc2_ov35</t>
+  </si>
+  <si>
+    <t>sc2_un45</t>
+  </si>
+  <si>
+    <t>sc2_ov45</t>
+  </si>
+  <si>
+    <t>sc2_un55</t>
+  </si>
+  <si>
+    <t>sc2_ov55</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>-29</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>sc2_teams</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X4</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>X7</t>
-  </si>
-  <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>X17</t>
-  </si>
-  <si>
-    <t>X18</t>
-  </si>
-  <si>
-    <t>X19</t>
-  </si>
-  <si>
-    <t>X20</t>
-  </si>
-  <si>
-    <t>X21</t>
-  </si>
-  <si>
-    <t>X22</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>55.5</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>53.5</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>51.5</t>
-  </si>
-  <si>
-    <t>2.1875</t>
-  </si>
-  <si>
-    <t>2.3125</t>
-  </si>
-  <si>
-    <t>2.5417</t>
-  </si>
-  <si>
-    <t>2.2292</t>
-  </si>
-  <si>
-    <t>2.1667</t>
-  </si>
-  <si>
-    <t>1.9167</t>
-  </si>
-  <si>
-    <t>2.3478</t>
-  </si>
-  <si>
-    <t>2.2391</t>
-  </si>
-  <si>
-    <t>X2021.07.31</t>
-  </si>
-  <si>
-    <t>X2021.08.07</t>
-  </si>
-  <si>
-    <t>X2021.08.14</t>
-  </si>
-  <si>
-    <t>X2021.08.21</t>
-  </si>
-  <si>
-    <t>X2021.08.28</t>
-  </si>
-  <si>
-    <t>X2021.09.11</t>
-  </si>
-  <si>
-    <t>X2021.09.14</t>
-  </si>
-  <si>
-    <t>X2021.09.18</t>
-  </si>
-  <si>
-    <t>X2021.09.25</t>
-  </si>
-  <si>
-    <t>X2021.10.02</t>
-  </si>
-  <si>
-    <t>X2021.10.03</t>
-  </si>
-  <si>
-    <t>X2021.10.16</t>
-  </si>
-  <si>
-    <t>X2021.10.23</t>
-  </si>
-  <si>
-    <t>X2021.10.24</t>
-  </si>
-  <si>
-    <t>X2021.10.30</t>
-  </si>
-  <si>
-    <t>X2021.11.06</t>
-  </si>
-  <si>
-    <t>X2021.11.13</t>
-  </si>
-  <si>
-    <t>X2021.11.20</t>
-  </si>
-  <si>
-    <t>X2021.12.04</t>
-  </si>
-  <si>
-    <t>X2021.12.07</t>
-  </si>
-  <si>
-    <t>X2021.12.11</t>
-  </si>
-  <si>
-    <t>X2021.12.18</t>
-  </si>
-  <si>
-    <t>X2021.12.22</t>
-  </si>
-  <si>
-    <t>X2021.12.26</t>
-  </si>
-  <si>
-    <t>X2021.12.29</t>
-  </si>
-  <si>
-    <t>X2022.01.02</t>
-  </si>
-  <si>
-    <t>X2022.01.08</t>
-  </si>
-  <si>
-    <t>X2022.01.15</t>
-  </si>
-  <si>
-    <t>X2022.01.22</t>
-  </si>
-  <si>
-    <t>X2022.01.25</t>
-  </si>
-  <si>
-    <t>X2022.01.29</t>
-  </si>
-  <si>
-    <t>X2022.02.05</t>
-  </si>
-  <si>
-    <t>X2022.02.08</t>
-  </si>
-  <si>
-    <t>sc2_hytotals</t>
-  </si>
-  <si>
-    <t>sc2_aytotals</t>
-  </si>
-  <si>
-    <t>sc2_totalyellows</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>69.5</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>2.4583</t>
-  </si>
-  <si>
-    <t>2.6042</t>
-  </si>
-  <si>
-    <t>2.2917</t>
-  </si>
-  <si>
-    <t>2.7917</t>
-  </si>
-  <si>
-    <t>2.9583</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>3.0217</t>
-  </si>
-  <si>
-    <t>2.9565</t>
-  </si>
-  <si>
-    <t>sc2_hrtotals</t>
-  </si>
-  <si>
-    <t>sc2_artotals</t>
-  </si>
-  <si>
-    <t>sc2_totalreds</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.2708</t>
-  </si>
-  <si>
-    <t>0.1875</t>
-  </si>
-  <si>
-    <t>0.1458</t>
-  </si>
-  <si>
-    <t>0.2292</t>
-  </si>
-  <si>
-    <t>0.2083</t>
-  </si>
-  <si>
-    <t>0.1667</t>
-  </si>
-  <si>
-    <t>0.1304</t>
-  </si>
-  <si>
-    <t>0.1739</t>
-  </si>
-  <si>
-    <t>sc2_un05</t>
-  </si>
-  <si>
-    <t>sc2_ov05</t>
-  </si>
-  <si>
-    <t>sc2_un15</t>
-  </si>
-  <si>
-    <t>sc2_ov15</t>
-  </si>
-  <si>
-    <t>sc2_un25</t>
-  </si>
-  <si>
-    <t>sc2_ov25</t>
-  </si>
-  <si>
-    <t>sc2_un35</t>
-  </si>
-  <si>
-    <t>sc2_ov35</t>
-  </si>
-  <si>
-    <t>sc2_un45</t>
-  </si>
-  <si>
-    <t>sc2_ov45</t>
-  </si>
-  <si>
-    <t>sc2_un55</t>
-  </si>
-  <si>
-    <t>sc2_ov55</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -730,16 +736,16 @@
     <t>TSCC</t>
   </si>
   <si>
-    <t>35.82%</t>
-  </si>
-  <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>44.74%</t>
-  </si>
-  <si>
-    <t>42.42%</t>
+    <t>38.89%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>45.00%</t>
+  </si>
+  <si>
+    <t>40.00%</t>
   </si>
   <si>
     <t>42.50%</t>
@@ -772,16 +778,16 @@
     <t>38.78%</t>
   </si>
   <si>
-    <t>43.24%</t>
-  </si>
-  <si>
-    <t>21.74%</t>
+    <t>46.34%</t>
+  </si>
+  <si>
+    <t>24.53%</t>
   </si>
   <si>
     <t>33.33%</t>
   </si>
   <si>
-    <t>48.78%</t>
+    <t>45.65%</t>
   </si>
   <si>
     <t>30.95%</t>
@@ -790,28 +796,28 @@
     <t>35.56%</t>
   </si>
   <si>
-    <t>30.77%</t>
-  </si>
-  <si>
-    <t>30.93%</t>
-  </si>
-  <si>
-    <t>38.67%</t>
-  </si>
-  <si>
-    <t>40.87%</t>
-  </si>
-  <si>
-    <t>42.86%</t>
-  </si>
-  <si>
-    <t>22.34%</t>
+    <t>32.59%</t>
+  </si>
+  <si>
+    <t>31.31%</t>
+  </si>
+  <si>
+    <t>38.96%</t>
+  </si>
+  <si>
+    <t>39.50%</t>
+  </si>
+  <si>
+    <t>44.44%</t>
+  </si>
+  <si>
+    <t>23.76%</t>
   </si>
   <si>
     <t>33.03%</t>
   </si>
   <si>
-    <t>35.45%</t>
+    <t>34.78%</t>
   </si>
   <si>
     <t>28.71%</t>
@@ -820,21 +826,18 @@
     <t>33.63%</t>
   </si>
   <si>
-    <t>34.09%</t>
-  </si>
-  <si>
-    <t>36.54%</t>
-  </si>
-  <si>
-    <t>37.10%</t>
+    <t>32.65%</t>
+  </si>
+  <si>
+    <t>37.29%</t>
+  </si>
+  <si>
+    <t>39.39%</t>
   </si>
   <si>
     <t>34.48%</t>
   </si>
   <si>
-    <t>37.29%</t>
-  </si>
-  <si>
     <t>34.15%</t>
   </si>
   <si>
@@ -862,43 +865,46 @@
     <t>28.57%</t>
   </si>
   <si>
-    <t>49.32%</t>
+    <t>43.08%</t>
+  </si>
+  <si>
+    <t>49.33%</t>
   </si>
   <si>
     <t>30.51%</t>
   </si>
   <si>
-    <t>13.64%</t>
+    <t>20.41%</t>
   </si>
   <si>
     <t>41.82%</t>
   </si>
   <si>
-    <t>30.43%</t>
-  </si>
-  <si>
-    <t>29.47%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>30.47%</t>
+    <t>28.00%</t>
+  </si>
+  <si>
+    <t>29.00%</t>
+  </si>
+  <si>
+    <t>36.75%</t>
+  </si>
+  <si>
+    <t>31.82%</t>
   </si>
   <si>
     <t>30.99%</t>
   </si>
   <si>
-    <t>40.16%</t>
-  </si>
-  <si>
-    <t>43.86%</t>
-  </si>
-  <si>
-    <t>22.47%</t>
-  </si>
-  <si>
-    <t>29.27%</t>
+    <t>40.32%</t>
+  </si>
+  <si>
+    <t>43.97%</t>
+  </si>
+  <si>
+    <t>25.53%</t>
+  </si>
+  <si>
+    <t>27.91%</t>
   </si>
 </sst>
 </file>
@@ -993,25 +999,25 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -1028,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1037,16 +1043,16 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -1063,25 +1069,25 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -1101,22 +1107,22 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -1130,7 +1136,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1142,16 +1148,16 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -1174,19 +1180,19 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -1203,25 +1209,25 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -1235,25 +1241,25 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
         <v>30</v>
@@ -1270,25 +1276,25 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
         <v>31</v>
@@ -1308,25 +1314,25 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -1351,7 +1357,7 @@
         <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -1360,7 +1366,7 @@
         <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
         <v>88</v>
@@ -1372,25 +1378,25 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>89</v>
       </c>
       <c r="L1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O1" t="s">
         <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
@@ -1401,28 +1407,28 @@
         <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -1440,21 +1446,21 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1463,34 +1469,34 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -1498,49 +1504,49 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
@@ -1548,31 +1554,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -1590,57 +1596,57 @@
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7">
@@ -1654,13 +1660,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -1669,28 +1675,28 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
         <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
@@ -1698,34 +1704,34 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
         <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -1737,10 +1743,10 @@
         <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9">
@@ -1748,34 +1754,34 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
         <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
         <v>11</v>
@@ -1790,33 +1796,33 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1825,7 +1831,7 @@
         <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -1837,10 +1843,10 @@
         <v>12</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11">
@@ -1848,31 +1854,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
         <v>95</v>
@@ -1890,7 +1896,7 @@
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1912,40 +1918,40 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -1965,31 +1971,31 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
         <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1997,10 +2003,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -2009,28 +2015,28 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
       <c r="I3" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
         <v>11</v>
@@ -2047,28 +2053,28 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
@@ -2077,7 +2083,7 @@
         <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2088,37 +2094,37 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s">
         <v>13</v>
@@ -2129,10 +2135,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -2147,16 +2153,16 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -2179,34 +2185,34 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>211</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
@@ -2223,34 +2229,34 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
         <v>11</v>
@@ -2267,37 +2273,37 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M9" t="s">
         <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -2305,40 +2311,40 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
         <v>10</v>
@@ -2352,37 +2358,37 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
@@ -2404,76 +2410,76 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
         <v>93</v>
       </c>
       <c r="O1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="S1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="U1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="V1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="X1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
@@ -2484,19 +2490,19 @@
         <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="D2" t="n">
         <v>63.0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.0</v>
+        <v>135.0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="H2" t="n">
         <v>16.0</v>
@@ -2505,34 +2511,34 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="K2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N2" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="P2" t="n">
         <v>51.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.0</v>
+        <v>100.0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.2307692307692308</v>
       </c>
       <c r="T2" t="n">
         <v>13.0</v>
@@ -2541,16 +2547,16 @@
         <v>1.0833333333333333</v>
       </c>
       <c r="V2" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="W2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="X2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
@@ -2558,22 +2564,22 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="D3" t="n">
         <v>47.0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3636363636363635</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>15.0</v>
@@ -2582,34 +2588,34 @@
         <v>1.1538461538461537</v>
       </c>
       <c r="J3" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N3" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.0</v>
+        <v>59.0</v>
       </c>
       <c r="P3" t="n">
         <v>58.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.0</v>
+        <v>117.0</v>
       </c>
       <c r="R3" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7272727272727273</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="T3" t="n">
         <v>21.0</v>
@@ -2618,16 +2624,16 @@
         <v>1.6153846153846154</v>
       </c>
       <c r="V3" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="W3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="X3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Y3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
@@ -2638,19 +2644,19 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="D4" t="n">
         <v>37.0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4166666666666667</v>
+        <v>1.3846153846153846</v>
       </c>
       <c r="H4" t="n">
         <v>12.0</v>
@@ -2659,34 +2665,34 @@
         <v>1.0</v>
       </c>
       <c r="J4" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="K4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N4" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O4" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="P4" t="n">
         <v>66.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.0</v>
+        <v>132.0</v>
       </c>
       <c r="R4" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.9166666666666667</v>
+        <v>2.0</v>
       </c>
       <c r="T4" t="n">
         <v>16.0</v>
@@ -2695,16 +2701,16 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="W4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="X4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
@@ -2715,19 +2721,19 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="D5" t="n">
         <v>49.0</v>
       </c>
       <c r="E5" t="n">
-        <v>115.0</v>
+        <v>119.0</v>
       </c>
       <c r="F5" t="n">
         <v>28.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3333333333333335</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="H5" t="n">
         <v>19.0</v>
@@ -2739,16 +2745,16 @@
         <v>47.0</v>
       </c>
       <c r="K5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N5" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O5" t="n">
         <v>29.0</v>
@@ -2763,7 +2769,7 @@
         <v>10.0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="T5" t="n">
         <v>12.0</v>
@@ -2775,13 +2781,13 @@
         <v>22.0</v>
       </c>
       <c r="W5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="X5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
@@ -2789,16 +2795,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>40.0</v>
       </c>
       <c r="D6" t="n">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E6" t="n">
-        <v>77.0</v>
+        <v>81.0</v>
       </c>
       <c r="F6" t="n">
         <v>17.0</v>
@@ -2807,34 +2813,34 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.3333333333333333</v>
+        <v>1.4615384615384615</v>
       </c>
       <c r="J6" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="K6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N6" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O6" t="n">
         <v>59.0</v>
       </c>
       <c r="P6" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.0</v>
+        <v>124.0</v>
       </c>
       <c r="R6" t="n">
         <v>22.0</v>
@@ -2843,22 +2849,22 @@
         <v>1.8333333333333333</v>
       </c>
       <c r="T6" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="V6" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="W6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X6" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="Y6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
@@ -2872,10 +2878,10 @@
         <v>48.0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.0</v>
+        <v>53.0</v>
       </c>
       <c r="E7" t="n">
-        <v>94.0</v>
+        <v>101.0</v>
       </c>
       <c r="F7" t="n">
         <v>11.0</v>
@@ -2884,34 +2890,34 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="K7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N7" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O7" t="n">
         <v>41.0</v>
       </c>
       <c r="P7" t="n">
-        <v>73.0</v>
+        <v>75.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.0</v>
+        <v>116.0</v>
       </c>
       <c r="R7" t="n">
         <v>14.0</v>
@@ -2920,22 +2926,22 @@
         <v>1.1666666666666667</v>
       </c>
       <c r="T7" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="U7" t="n">
-        <v>3.0</v>
+        <v>2.8461538461538463</v>
       </c>
       <c r="V7" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="W7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="X7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Y7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
@@ -2970,13 +2976,13 @@
         <v>36.0</v>
       </c>
       <c r="K8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N8" t="n">
         <v>24.0</v>
@@ -3006,13 +3012,13 @@
         <v>36.0</v>
       </c>
       <c r="W8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9">
@@ -3026,10 +3032,10 @@
         <v>69.0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="E9" t="n">
-        <v>110.0</v>
+        <v>115.0</v>
       </c>
       <c r="F9" t="n">
         <v>19.0</v>
@@ -3038,34 +3044,34 @@
         <v>1.4615384615384615</v>
       </c>
       <c r="H9" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8181818181818181</v>
+        <v>1.75</v>
       </c>
       <c r="J9" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="K9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N9" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O9" t="n">
         <v>45.0</v>
       </c>
       <c r="P9" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.0</v>
+        <v>94.0</v>
       </c>
       <c r="R9" t="n">
         <v>14.0</v>
@@ -3074,22 +3080,22 @@
         <v>1.0769230769230769</v>
       </c>
       <c r="T9" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="V9" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="W9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="X9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -3097,7 +3103,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>59.0</v>
@@ -3124,13 +3130,13 @@
         <v>29.0</v>
       </c>
       <c r="K10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N10" t="n">
         <v>23.0</v>
@@ -3160,13 +3166,13 @@
         <v>34.0</v>
       </c>
       <c r="W10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Y10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11">
@@ -3195,31 +3201,31 @@
         <v>16.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.3333333333333333</v>
+        <v>1.2307692307692308</v>
       </c>
       <c r="J11" t="n">
         <v>38.0</v>
       </c>
       <c r="K11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N11" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="O11" t="n">
         <v>36.0</v>
       </c>
       <c r="P11" t="n">
-        <v>46.0</v>
+        <v>50.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.0</v>
+        <v>86.0</v>
       </c>
       <c r="R11" t="n">
         <v>10.0</v>
@@ -3231,19 +3237,19 @@
         <v>14.0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.1666666666666667</v>
+        <v>1.0769230769230769</v>
       </c>
       <c r="V11" t="n">
         <v>24.0</v>
       </c>
       <c r="W11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="X11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3410,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -3632,7 +3638,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -3928,7 +3934,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -4235,7 +4241,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -4457,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -4753,7 +4759,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -5060,7 +5066,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -5282,7 +5288,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -5578,7 +5584,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -5885,7 +5891,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6107,7 +6113,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -6403,7 +6409,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -6565,7 +6571,7 @@
         <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -6574,7 +6580,7 @@
         <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
         <v>88</v>
@@ -6586,7 +6592,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>89</v>
@@ -6633,7 +6639,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -6645,21 +6651,21 @@
         <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -6692,19 +6698,19 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -6724,7 +6730,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -6742,19 +6748,19 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5">
@@ -6789,27 +6795,27 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>97</v>
@@ -6842,19 +6848,19 @@
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -6892,19 +6898,19 @@
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -6942,19 +6948,19 @@
         <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
@@ -6971,7 +6977,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>
@@ -6992,24 +6998,24 @@
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -7030,10 +7036,10 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>95</v>
@@ -7042,19 +7048,19 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -7068,7 +7074,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -7092,19 +7098,19 @@
         <v>95</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s">
         <v>104</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7123,103 +7129,106 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="V1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="W1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="X1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Y1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AA1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AD1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AE1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AH1" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -7245,7 +7254,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -7275,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
         <v>11</v>
@@ -7320,21 +7329,24 @@
         <v>10</v>
       </c>
       <c r="AG2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH2" t="s">
         <v>95</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -7355,10 +7367,10 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>95</v>
@@ -7379,7 +7391,7 @@
         <v>12</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
         <v>11</v>
@@ -7391,7 +7403,7 @@
         <v>95</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W3" t="s">
         <v>11</v>
@@ -7427,6 +7439,9 @@
         <v>13</v>
       </c>
       <c r="AH3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7444,10 +7459,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -7528,10 +7543,13 @@
         <v>10</v>
       </c>
       <c r="AG4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s">
         <v>95</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -7539,7 +7557,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -7551,7 +7569,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -7566,7 +7584,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
         <v>95</v>
@@ -7584,7 +7602,7 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R5" t="s">
         <v>11</v>
@@ -7593,7 +7611,7 @@
         <v>12</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
         <v>95</v>
@@ -7620,7 +7638,7 @@
         <v>11</v>
       </c>
       <c r="AC5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD5" t="s">
         <v>95</v>
@@ -7632,15 +7650,18 @@
         <v>11</v>
       </c>
       <c r="AG5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH5" t="s">
         <v>95</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -7649,7 +7670,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -7697,7 +7718,7 @@
         <v>12</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
         <v>95</v>
@@ -7740,6 +7761,9 @@
       </c>
       <c r="AH6" t="s">
         <v>11</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -7750,7 +7774,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -7768,7 +7792,7 @@
         <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
@@ -7801,7 +7825,7 @@
         <v>11</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
         <v>95</v>
@@ -7822,7 +7846,7 @@
         <v>95</v>
       </c>
       <c r="AA7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB7" t="s">
         <v>11</v>
@@ -7844,6 +7868,9 @@
       </c>
       <c r="AH7" t="s">
         <v>95</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -7860,7 +7887,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -7887,7 +7914,7 @@
         <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
         <v>95</v>
@@ -7902,7 +7929,7 @@
         <v>10</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
         <v>12</v>
@@ -7947,7 +7974,10 @@
         <v>10</v>
       </c>
       <c r="AH8" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -7976,7 +8006,7 @@
         <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -7988,7 +8018,7 @@
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
         <v>11</v>
@@ -8000,7 +8030,7 @@
         <v>11</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R9" t="s">
         <v>12</v>
@@ -8030,10 +8060,10 @@
         <v>95</v>
       </c>
       <c r="AA9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC9" t="s">
         <v>12</v>
@@ -8053,10 +8083,13 @@
       <c r="AH9" t="s">
         <v>95</v>
       </c>
+      <c r="AI9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -8113,7 +8146,7 @@
         <v>11</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
         <v>95</v>
@@ -8140,7 +8173,7 @@
         <v>95</v>
       </c>
       <c r="AC10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD10" t="s">
         <v>95</v>
@@ -8155,6 +8188,9 @@
         <v>13</v>
       </c>
       <c r="AH10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8166,7 +8202,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -8178,7 +8214,7 @@
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>95</v>
@@ -8208,7 +8244,7 @@
         <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R11" t="s">
         <v>11</v>
@@ -8260,6 +8296,9 @@
       </c>
       <c r="AH11" t="s">
         <v>10</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8281,7 +8320,7 @@
         <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
@@ -8290,7 +8329,7 @@
         <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
         <v>88</v>
@@ -8302,25 +8341,25 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>89</v>
       </c>
       <c r="L1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O1" t="s">
         <v>93</v>
       </c>
       <c r="P1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -8349,7 +8388,7 @@
         <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -8358,24 +8397,24 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -8387,13 +8426,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>97</v>
@@ -8408,19 +8447,19 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -8440,7 +8479,7 @@
         <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -8455,22 +8494,22 @@
         <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -8490,7 +8529,7 @@
         <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -8505,30 +8544,30 @@
         <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="L5" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="N5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -8558,19 +8597,19 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
@@ -8602,25 +8641,25 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
@@ -8640,7 +8679,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -8658,19 +8697,19 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -8687,7 +8726,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -8702,30 +8741,30 @@
         <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -8758,19 +8797,19 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -8808,19 +8847,19 @@
         <v>95</v>
       </c>
       <c r="L11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="N11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O11" t="s">
         <v>31</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8839,103 +8878,106 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="U1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="V1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="W1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="X1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Y1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Z1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AA1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AB1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AC1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AD1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AE1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AH1" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -8943,64 +8985,64 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
         <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
         <v>95</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
         <v>95</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
         <v>95</v>
@@ -9012,48 +9054,51 @@
         <v>95</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD2" t="s">
         <v>95</v>
       </c>
       <c r="AE2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH2" t="s">
         <v>95</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -9062,16 +9107,16 @@
         <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -9086,16 +9131,16 @@
         <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
         <v>10</v>
@@ -9107,16 +9152,16 @@
         <v>95</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
         <v>95</v>
       </c>
       <c r="Y3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z3" t="s">
         <v>95</v>
@@ -9125,10 +9170,10 @@
         <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD3" t="s">
         <v>95</v>
@@ -9137,13 +9182,16 @@
         <v>95</v>
       </c>
       <c r="AF3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH3" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9151,67 +9199,67 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
         <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
         <v>95</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
         <v>95</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W4" t="s">
         <v>95</v>
@@ -9220,7 +9268,7 @@
         <v>95</v>
       </c>
       <c r="Y4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z4" t="s">
         <v>95</v>
@@ -9229,25 +9277,28 @@
         <v>95</v>
       </c>
       <c r="AB4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s">
         <v>95</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -9255,19 +9306,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -9276,40 +9327,40 @@
         <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
         <v>95</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
         <v>95</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
         <v>95</v>
@@ -9318,25 +9369,25 @@
         <v>10</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X5" t="s">
         <v>95</v>
       </c>
       <c r="Y5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z5" t="s">
         <v>95</v>
       </c>
       <c r="AA5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD5" t="s">
         <v>95</v>
@@ -9345,54 +9396,57 @@
         <v>95</v>
       </c>
       <c r="AF5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH5" t="s">
         <v>95</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
         <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
         <v>95</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s">
         <v>12</v>
@@ -9401,28 +9455,28 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
         <v>95</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X6" t="s">
         <v>95</v>
@@ -9434,13 +9488,13 @@
         <v>95</v>
       </c>
       <c r="AA6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD6" t="s">
         <v>95</v>
@@ -9449,13 +9503,16 @@
         <v>95</v>
       </c>
       <c r="AF6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s">
         <v>10</v>
       </c>
       <c r="AH6" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -9463,22 +9520,22 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>95</v>
@@ -9487,43 +9544,43 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
         <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
         <v>95</v>
       </c>
       <c r="V7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W7" t="s">
         <v>95</v>
@@ -9532,7 +9589,7 @@
         <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z7" t="s">
         <v>95</v>
@@ -9541,10 +9598,10 @@
         <v>10</v>
       </c>
       <c r="AB7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD7" t="s">
         <v>10</v>
@@ -9553,13 +9610,16 @@
         <v>95</v>
       </c>
       <c r="AF7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH7" t="s">
         <v>95</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -9567,43 +9627,43 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
         <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
         <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
         <v>95</v>
@@ -9612,22 +9672,22 @@
         <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
         <v>95</v>
       </c>
       <c r="V8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W8" t="s">
         <v>95</v>
@@ -9636,7 +9696,7 @@
         <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z8" t="s">
         <v>95</v>
@@ -9645,25 +9705,28 @@
         <v>95</v>
       </c>
       <c r="AB8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE8" t="s">
         <v>95</v>
       </c>
       <c r="AF8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG8" t="s">
         <v>10</v>
       </c>
       <c r="AH8" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -9671,43 +9734,43 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
         <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
         <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
         <v>95</v>
@@ -9716,25 +9779,25 @@
         <v>10</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
         <v>95</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X9" t="s">
         <v>10</v>
@@ -9746,13 +9809,13 @@
         <v>95</v>
       </c>
       <c r="AA9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD9" t="s">
         <v>95</v>
@@ -9761,87 +9824,90 @@
         <v>95</v>
       </c>
       <c r="AF9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH9" t="s">
         <v>95</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
         <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
         <v>95</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
         <v>95</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y10" t="s">
         <v>95</v>
@@ -9856,7 +9922,7 @@
         <v>95</v>
       </c>
       <c r="AC10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD10" t="s">
         <v>95</v>
@@ -9865,12 +9931,15 @@
         <v>95</v>
       </c>
       <c r="AF10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9879,61 +9948,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
         <v>95</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
         <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s">
         <v>10</v>
       </c>
       <c r="Q11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
         <v>95</v>
@@ -9942,7 +10011,7 @@
         <v>95</v>
       </c>
       <c r="W11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X11" t="s">
         <v>95</v>
@@ -9960,22 +10029,25 @@
         <v>95</v>
       </c>
       <c r="AC11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE11" t="s">
         <v>95</v>
       </c>
       <c r="AF11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH11" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -311,381 +311,381 @@
     <t>0</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>suml6_sc2_gc</t>
+  </si>
+  <si>
+    <t>sum_sc2_zero_gc</t>
+  </si>
+  <si>
+    <t>sum_sc2_one_gc</t>
+  </si>
+  <si>
+    <t>sum_sc2_two_gc</t>
+  </si>
+  <si>
+    <t>sum_sc2_three_gc</t>
+  </si>
+  <si>
+    <t>suml6_sc2_wm</t>
+  </si>
+  <si>
+    <t>suml6_sc2_wm_negtwo</t>
+  </si>
+  <si>
+    <t>suml6_sc2_wm_negone</t>
+  </si>
+  <si>
+    <t>suml6_sc2_wm_zero</t>
+  </si>
+  <si>
+    <t>suml6_sc2_wm_posone</t>
+  </si>
+  <si>
+    <t>suml6_sc2_wm_postwo</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>suml6_sc2_tg</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hgtotals</t>
+  </si>
+  <si>
+    <t>sc2_agtotals</t>
+  </si>
+  <si>
+    <t>sc2_totalgoals</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalgoals</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>51.5</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>1.6406</t>
+  </si>
+  <si>
+    <t>1.625</t>
+  </si>
+  <si>
+    <t>1.5781</t>
+  </si>
+  <si>
+    <t>1.6875</t>
+  </si>
+  <si>
+    <t>1.9062</t>
+  </si>
+  <si>
+    <t>1.5938</t>
+  </si>
+  <si>
+    <t>1.6562</t>
+  </si>
+  <si>
+    <t>1.375</t>
+  </si>
+  <si>
+    <t>1.6094</t>
+  </si>
+  <si>
+    <t>1.4219</t>
+  </si>
+  <si>
+    <t>sc2_hytotals</t>
+  </si>
+  <si>
+    <t>sc2_aytotals</t>
+  </si>
+  <si>
+    <t>sc2_totalyellows</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalyellows</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
+    <t>33.5</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>58.5</t>
+  </si>
+  <si>
+    <t>64.5</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>75.5</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>71.5</t>
+  </si>
+  <si>
+    <t>63.5</t>
+  </si>
+  <si>
+    <t>1.8281</t>
+  </si>
+  <si>
+    <t>1.7188</t>
+  </si>
+  <si>
+    <t>2.0156</t>
+  </si>
+  <si>
+    <t>1.9688</t>
+  </si>
+  <si>
+    <t>1.9531</t>
+  </si>
+  <si>
+    <t>1.8125</t>
+  </si>
+  <si>
+    <t>2.3594</t>
+  </si>
+  <si>
+    <t>1.875</t>
+  </si>
+  <si>
+    <t>2.2344</t>
+  </si>
+  <si>
+    <t>1.9844</t>
+  </si>
+  <si>
+    <t>sc2_hrtotals</t>
+  </si>
+  <si>
+    <t>sc2_artotals</t>
+  </si>
+  <si>
+    <t>sc2_totalreds</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>0.1719</t>
+  </si>
+  <si>
+    <t>0.1094</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.1875</t>
+  </si>
+  <si>
+    <t>0.2188</t>
+  </si>
+  <si>
+    <t>0.1406</t>
+  </si>
+  <si>
+    <t>0.1562</t>
+  </si>
+  <si>
+    <t>sc2_un05</t>
+  </si>
+  <si>
+    <t>sc2_ov05</t>
+  </si>
+  <si>
+    <t>sc2_un15</t>
+  </si>
+  <si>
+    <t>sc2_ov15</t>
+  </si>
+  <si>
+    <t>sc2_un25</t>
+  </si>
+  <si>
+    <t>sc2_ov25</t>
+  </si>
+  <si>
+    <t>sc2_un35</t>
+  </si>
+  <si>
+    <t>sc2_ov35</t>
+  </si>
+  <si>
+    <t>sc2_un45</t>
+  </si>
+  <si>
+    <t>sc2_ov45</t>
+  </si>
+  <si>
+    <t>sc2_un55</t>
+  </si>
+  <si>
+    <t>sc2_ov55</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>suml6_sc2_gc</t>
-  </si>
-  <si>
-    <t>sum_sc2_zero_gc</t>
-  </si>
-  <si>
-    <t>sum_sc2_one_gc</t>
-  </si>
-  <si>
-    <t>sum_sc2_two_gc</t>
-  </si>
-  <si>
-    <t>sum_sc2_three_gc</t>
-  </si>
-  <si>
-    <t>suml6_sc2_wm</t>
-  </si>
-  <si>
-    <t>suml6_sc2_wm_negtwo</t>
-  </si>
-  <si>
-    <t>suml6_sc2_wm_negone</t>
-  </si>
-  <si>
-    <t>suml6_sc2_wm_zero</t>
-  </si>
-  <si>
-    <t>suml6_sc2_wm_posone</t>
-  </si>
-  <si>
-    <t>suml6_sc2_wm_postwo</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>suml6_sc2_tg</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hgtotals</t>
-  </si>
-  <si>
-    <t>sc2_agtotals</t>
-  </si>
-  <si>
-    <t>sc2_totalgoals</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>50.5</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>51.5</t>
-  </si>
-  <si>
-    <t>45.5</t>
-  </si>
-  <si>
-    <t>1.6406</t>
-  </si>
-  <si>
-    <t>1.625</t>
-  </si>
-  <si>
-    <t>1.5781</t>
-  </si>
-  <si>
-    <t>1.6875</t>
-  </si>
-  <si>
-    <t>1.9062</t>
-  </si>
-  <si>
-    <t>1.5938</t>
-  </si>
-  <si>
-    <t>1.6562</t>
-  </si>
-  <si>
-    <t>1.375</t>
-  </si>
-  <si>
-    <t>1.6094</t>
-  </si>
-  <si>
-    <t>1.4219</t>
-  </si>
-  <si>
-    <t>sc2_hytotals</t>
-  </si>
-  <si>
-    <t>sc2_aytotals</t>
-  </si>
-  <si>
-    <t>sc2_totalyellows</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalyellows</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>37.5</t>
-  </si>
-  <si>
-    <t>58.5</t>
-  </si>
-  <si>
-    <t>64.5</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>75.5</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>71.5</t>
-  </si>
-  <si>
-    <t>63.5</t>
-  </si>
-  <si>
-    <t>1.8281</t>
-  </si>
-  <si>
-    <t>1.7188</t>
-  </si>
-  <si>
-    <t>2.0156</t>
-  </si>
-  <si>
-    <t>1.9688</t>
-  </si>
-  <si>
-    <t>1.9531</t>
-  </si>
-  <si>
-    <t>1.8125</t>
-  </si>
-  <si>
-    <t>2.3594</t>
-  </si>
-  <si>
-    <t>1.875</t>
-  </si>
-  <si>
-    <t>2.2344</t>
-  </si>
-  <si>
-    <t>1.9844</t>
-  </si>
-  <si>
-    <t>sc2_hrtotals</t>
-  </si>
-  <si>
-    <t>sc2_artotals</t>
-  </si>
-  <si>
-    <t>sc2_totalreds</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.1719</t>
-  </si>
-  <si>
-    <t>0.1094</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>0.1875</t>
-  </si>
-  <si>
-    <t>0.2188</t>
-  </si>
-  <si>
-    <t>0.1406</t>
-  </si>
-  <si>
-    <t>0.1562</t>
-  </si>
-  <si>
-    <t>sc2_un05</t>
-  </si>
-  <si>
-    <t>sc2_ov05</t>
-  </si>
-  <si>
-    <t>sc2_un15</t>
-  </si>
-  <si>
-    <t>sc2_ov15</t>
-  </si>
-  <si>
-    <t>sc2_un25</t>
-  </si>
-  <si>
-    <t>sc2_ov25</t>
-  </si>
-  <si>
-    <t>sc2_un35</t>
-  </si>
-  <si>
-    <t>sc2_ov35</t>
-  </si>
-  <si>
-    <t>sc2_un45</t>
-  </si>
-  <si>
-    <t>sc2_ov45</t>
-  </si>
-  <si>
-    <t>sc2_un55</t>
-  </si>
-  <si>
-    <t>sc2_ov55</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -974,34 +974,34 @@
     <t>Queens Park,W W D L W D</t>
   </si>
   <si>
-    <t>Airdrie Utd,3 3 4 1 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Alloa,0 1 2 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Clyde,2 2 1 1 2 0,(8)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,1 1 0 2 5 4,(13)</t>
-  </si>
-  <si>
-    <t>Dumbarton,2 2 1 0 0 0,(5)</t>
-  </si>
-  <si>
-    <t>East Fife,0 0 1 2 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Falkirk,6 1 1 3 1 0,(12)</t>
-  </si>
-  <si>
-    <t>Montrose,1 2 1 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Peterhead,1 0 0 4 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Queens Park,2 0 2 1 1 1,(7)</t>
+    <t>Airdrie Utd,1 2 4 2 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Alloa,2 0 1 1 3 2,(9)</t>
+  </si>
+  <si>
+    <t>Clyde,1 1 1 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Cove Rangers,2 5 4 2 1 1,(15)</t>
+  </si>
+  <si>
+    <t>Dumbarton,3 0 0 0 0 3,(6)</t>
+  </si>
+  <si>
+    <t>East Fife,1 0 2 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Falkirk,3 1 1 2 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Montrose,1 0 1 1 0 3,(6)</t>
+  </si>
+  <si>
+    <t>Peterhead,1 2 0 0 1 3,(7)</t>
+  </si>
+  <si>
+    <t>Queens Park,2 3 1 0 1 1,(8)</t>
   </si>
   <si>
     <t>Airdrie Utd,1 0 1 0 1 0,(3)</t>
@@ -3823,7 +3823,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -3920,7 +3920,7 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -3964,13 +3964,13 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -4049,7 +4049,7 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
         <v>69</v>
@@ -4175,7 +4175,7 @@
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -4184,7 +4184,7 @@
         <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -4222,7 +4222,7 @@
         <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
         <v>33</v>
@@ -4298,7 +4298,7 @@
         <v>232</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O1" t="s">
         <v>233</v>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>494</v>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
         <v>494</v>
@@ -11596,7 +11596,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
         <v>494</v>
@@ -12720,7 +12720,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
         <v>494</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
         <v>494</v>
@@ -19745,7 +19745,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
         <v>494</v>
@@ -20588,7 +20588,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
         <v>494</v>
@@ -22555,7 +22555,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
         <v>494</v>
@@ -26208,7 +26208,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>494</v>
@@ -27332,7 +27332,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
         <v>494</v>
@@ -30423,7 +30423,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
         <v>494</v>
@@ -30704,7 +30704,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B91" t="s">
         <v>494</v>
@@ -31775,19 +31775,19 @@
         <v>94</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -31796,49 +31796,49 @@
         <v>94</v>
       </c>
       <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
         <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
       </c>
       <c r="P2" t="s">
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
         <v>19</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -31849,13 +31849,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -31864,7 +31864,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -31873,49 +31873,49 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>94</v>
       </c>
       <c r="Q3" t="s">
         <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U3" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
         <v>12</v>
-      </c>
-      <c r="W3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -31935,61 +31935,61 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>94</v>
-      </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
         <v>94</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" t="s">
         <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" t="s">
-        <v>11</v>
       </c>
       <c r="O4" t="s">
         <v>10</v>
       </c>
       <c r="P4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" t="s">
         <v>11</v>
       </c>
-      <c r="R4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S4" t="s">
-        <v>95</v>
-      </c>
-      <c r="T4" t="s">
-        <v>95</v>
-      </c>
       <c r="U4" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="W4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s">
         <v>10</v>
@@ -32006,70 +32006,70 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O5" t="s">
         <v>94</v>
       </c>
       <c r="P5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" t="s">
-        <v>14</v>
-      </c>
       <c r="R5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="T5" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -32080,31 +32080,31 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
         <v>94</v>
@@ -32113,7 +32113,7 @@
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="s">
         <v>10</v>
@@ -32122,31 +32122,31 @@
         <v>94</v>
       </c>
       <c r="Q6" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="R6" t="s">
         <v>94</v>
       </c>
       <c r="S6" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
         <v>14</v>
-      </c>
-      <c r="X6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -32160,70 +32160,70 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
       </c>
       <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="O7" t="s">
         <v>10</v>
       </c>
       <c r="P7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
         <v>95</v>
       </c>
-      <c r="T7" t="s">
-        <v>95</v>
-      </c>
-      <c r="U7" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" t="s">
-        <v>18</v>
-      </c>
       <c r="W7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" t="s">
         <v>12</v>
-      </c>
-      <c r="X7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -32234,19 +32234,19 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>94</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>94</v>
@@ -32255,19 +32255,19 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
         <v>94</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>94</v>
       </c>
-      <c r="L8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
       <c r="N8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O8" t="s">
         <v>10</v>
@@ -32276,31 +32276,31 @@
         <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s">
         <v>94</v>
       </c>
       <c r="S8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T8" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="U8" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="V8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y8" t="s">
         <v>15</v>
-      </c>
-      <c r="X8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -32311,22 +32311,22 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
         <v>94</v>
@@ -32338,46 +32338,46 @@
         <v>10</v>
       </c>
       <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" t="s">
+      <c r="R9" t="s">
         <v>11</v>
       </c>
-      <c r="O9" t="s">
+      <c r="S9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" t="s">
         <v>10</v>
       </c>
-      <c r="P9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>94</v>
-      </c>
-      <c r="R9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" t="s">
-        <v>95</v>
-      </c>
-      <c r="T9" t="s">
-        <v>95</v>
-      </c>
       <c r="U9" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="W9" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="X9" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -32391,19 +32391,19 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>94</v>
       </c>
       <c r="I10" t="s">
         <v>94</v>
@@ -32412,49 +32412,49 @@
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
         <v>94</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
       </c>
       <c r="N10" t="s">
         <v>94</v>
       </c>
       <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
         <v>94</v>
       </c>
-      <c r="P10" t="s">
-        <v>13</v>
-      </c>
       <c r="Q10" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="R10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
         <v>10</v>
       </c>
-      <c r="S10" t="s">
-        <v>95</v>
-      </c>
       <c r="T10" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="U10" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" t="s">
         <v>16</v>
       </c>
-      <c r="W10" t="s">
-        <v>12</v>
-      </c>
       <c r="X10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="s">
         <v>15</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -32465,73 +32465,73 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
         <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" t="s">
-        <v>10</v>
       </c>
       <c r="Q11" t="s">
         <v>10</v>
       </c>
       <c r="R11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" t="s">
         <v>10</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s">
+        <v>15</v>
+      </c>
+      <c r="W11" t="s">
         <v>95</v>
       </c>
-      <c r="T11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" t="s">
-        <v>49</v>
-      </c>
-      <c r="V11" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" t="s">
-        <v>15</v>
-      </c>
       <c r="X11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" t="s">
         <v>16</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -32607,19 +32607,19 @@
         <v>88</v>
       </c>
       <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" t="s">
         <v>99</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>100</v>
-      </c>
-      <c r="W1" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -33465,22 +33465,22 @@
         <v>88</v>
       </c>
       <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X1" t="s">
         <v>104</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>105</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>106</v>
-      </c>
-      <c r="X1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2">
@@ -33491,13 +33491,13 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -33512,7 +33512,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -33524,7 +33524,7 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -33533,10 +33533,10 @@
         <v>10</v>
       </c>
       <c r="Q2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S2" t="s">
         <v>11</v>
@@ -33571,13 +33571,13 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>94</v>
@@ -33586,7 +33586,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -33595,10 +33595,10 @@
         <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
@@ -33613,16 +33613,16 @@
         <v>94</v>
       </c>
       <c r="Q3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R3" t="s">
         <v>94</v>
       </c>
       <c r="S3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U3" t="s">
         <v>61</v>
@@ -33651,7 +33651,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
         <v>94</v>
@@ -33660,13 +33660,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
         <v>94</v>
@@ -33675,16 +33675,16 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O4" t="s">
         <v>94</v>
@@ -33734,7 +33734,7 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -33743,7 +33743,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
         <v>94</v>
@@ -33758,7 +33758,7 @@
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
@@ -33817,10 +33817,10 @@
         <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -33838,31 +33838,31 @@
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q6" t="s">
         <v>10</v>
       </c>
       <c r="R6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U6" t="s">
         <v>64</v>
@@ -33894,13 +33894,13 @@
         <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -33909,19 +33909,19 @@
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s">
         <v>10</v>
@@ -33930,10 +33930,10 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R7" t="s">
         <v>94</v>
@@ -33942,7 +33942,7 @@
         <v>94</v>
       </c>
       <c r="T7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U7" t="s">
         <v>65</v>
@@ -33983,13 +33983,13 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
         <v>94</v>
@@ -33998,7 +33998,7 @@
         <v>10</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s">
         <v>94</v>
@@ -34013,16 +34013,16 @@
         <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U8" t="s">
         <v>60</v>
@@ -34063,13 +34063,13 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H9" t="s">
         <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
         <v>94</v>
@@ -34134,25 +34134,25 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -34167,10 +34167,10 @@
         <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q10" t="s">
         <v>10</v>
@@ -34241,7 +34241,7 @@
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -34253,7 +34253,7 @@
         <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R11" t="s">
         <v>15</v>
@@ -34262,7 +34262,7 @@
         <v>94</v>
       </c>
       <c r="T11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U11" t="s">
         <v>37</v>
@@ -34356,7 +34356,7 @@
         <v>88</v>
       </c>
       <c r="U1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
@@ -34421,7 +34421,7 @@
         <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
@@ -34486,7 +34486,7 @@
         <v>12</v>
       </c>
       <c r="U3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -34551,7 +34551,7 @@
         <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
@@ -34616,7 +34616,7 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -34681,7 +34681,7 @@
         <v>14</v>
       </c>
       <c r="U6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -34746,7 +34746,7 @@
         <v>15</v>
       </c>
       <c r="U7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -34811,7 +34811,7 @@
         <v>12</v>
       </c>
       <c r="U8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -34876,7 +34876,7 @@
         <v>11</v>
       </c>
       <c r="U9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -34941,7 +34941,7 @@
         <v>14</v>
       </c>
       <c r="U10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -35006,7 +35006,7 @@
         <v>10</v>
       </c>
       <c r="U11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -35025,7 +35025,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -35034,13 +35034,13 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>24</v>
@@ -35052,22 +35052,22 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
         <v>125</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>126</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>127</v>
-      </c>
-      <c r="N1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -35075,13 +35075,13 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -35102,22 +35102,22 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M2" t="s">
         <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -35125,10 +35125,10 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -35143,22 +35143,22 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -35167,7 +35167,7 @@
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -35181,13 +35181,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -35199,7 +35199,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -35208,16 +35208,16 @@
         <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -35225,7 +35225,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -35234,19 +35234,19 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -35255,19 +35255,19 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -35275,10 +35275,10 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -35287,13 +35287,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -35311,13 +35311,13 @@
         <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O6" t="s">
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
@@ -35325,10 +35325,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -35337,10 +35337,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -35349,25 +35349,25 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
         <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -35387,28 +35387,28 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N8" t="s">
         <v>53</v>
@@ -35417,7 +35417,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -35434,31 +35434,31 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" t="s">
         <v>131</v>
       </c>
-      <c r="G9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" t="s">
-        <v>133</v>
-      </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s">
         <v>42</v>
@@ -35467,7 +35467,7 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
@@ -35478,10 +35478,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -35493,31 +35493,31 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O10" t="s">
         <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
@@ -35528,10 +35528,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -35546,28 +35546,28 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s">
         <v>30</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -35586,7 +35586,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -35595,13 +35595,13 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>24</v>
@@ -35613,22 +35613,22 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
         <v>165</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>166</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
         <v>167</v>
-      </c>
-      <c r="O1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -35636,10 +35636,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -35651,10 +35651,10 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -35666,10 +35666,10 @@
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" t="s">
         <v>177</v>
@@ -35689,7 +35689,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -35698,13 +35698,13 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -35716,7 +35716,7 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M3" t="s">
         <v>172</v>
@@ -35739,13 +35739,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -35763,10 +35763,10 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M4" t="s">
         <v>173</v>
@@ -35786,16 +35786,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -35810,10 +35810,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L5" t="s">
         <v>48</v>
@@ -35836,7 +35836,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -35848,7 +35848,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -35857,16 +35857,16 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
         <v>30</v>
@@ -35892,7 +35892,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -35901,7 +35901,7 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -35910,7 +35910,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -35936,37 +35936,37 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="M8" t="s">
         <v>174</v>
@@ -35989,10 +35989,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -36007,10 +36007,10 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -36039,7 +36039,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -36054,13 +36054,13 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -36086,7 +36086,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -36095,7 +36095,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -36107,19 +36107,19 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N11" t="s">
         <v>185</v>
@@ -36147,7 +36147,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -36156,13 +36156,13 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>24</v>
@@ -36174,7 +36174,7 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L1" t="s">
         <v>196</v>
@@ -36186,7 +36186,7 @@
         <v>198</v>
       </c>
       <c r="O1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P1" t="s">
         <v>199</v>
@@ -36197,7 +36197,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
@@ -36212,10 +36212,10 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
         <v>94</v>
@@ -36224,16 +36224,16 @@
         <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
@@ -36250,7 +36250,7 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>94</v>
@@ -36259,10 +36259,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
         <v>94</v>
@@ -36271,19 +36271,19 @@
         <v>94</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
@@ -36303,13 +36303,13 @@
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
         <v>94</v>
@@ -36353,10 +36353,10 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>94</v>
@@ -36365,10 +36365,10 @@
         <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J5" t="s">
         <v>94</v>
@@ -36377,10 +36377,10 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" t="s">
         <v>131</v>
-      </c>
-      <c r="M5" t="s">
-        <v>133</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
@@ -36397,7 +36397,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>94</v>
@@ -36409,7 +36409,7 @@
         <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
         <v>94</v>
@@ -36418,7 +36418,7 @@
         <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J6" t="s">
         <v>94</v>
@@ -36447,10 +36447,10 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>94</v>
@@ -36459,16 +36459,16 @@
         <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
         <v>94</v>
@@ -36480,10 +36480,10 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" t="s">
         <v>132</v>
-      </c>
-      <c r="N7" t="s">
-        <v>134</v>
       </c>
       <c r="O7" t="s">
         <v>30</v>
@@ -36515,7 +36515,7 @@
         <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
         <v>94</v>
@@ -36524,13 +36524,13 @@
         <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -36559,31 +36559,31 @@
         <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
         <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
         <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
@@ -36606,7 +36606,7 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -36615,25 +36615,25 @@
         <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s">
         <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
         <v>30</v>
@@ -36653,10 +36653,10 @@
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
@@ -36674,16 +36674,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
       </c>
       <c r="M11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" t="s">
         <v>131</v>
-      </c>
-      <c r="N11" t="s">
-        <v>133</v>
       </c>
       <c r="O11" t="s">
         <v>30</v>

--- a/Divisions/SC2.xlsx
+++ b/Divisions/SC2.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="291">
   <si>
     <t>Team</t>
   </si>
@@ -896,237 +895,6 @@
   </si>
   <si>
     <t>29.03%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,W D W D W D</t>
-  </si>
-  <si>
-    <t>Alloa,D L W L W W</t>
-  </si>
-  <si>
-    <t>Clyde,L D W L W L</t>
-  </si>
-  <si>
-    <t>Cove Rangers,D W W W W W</t>
-  </si>
-  <si>
-    <t>Dumbarton,L L L D D W</t>
-  </si>
-  <si>
-    <t>East Fife,D W L L L L</t>
-  </si>
-  <si>
-    <t>Falkirk,D W L L L L</t>
-  </si>
-  <si>
-    <t>Montrose,D D D L D W</t>
-  </si>
-  <si>
-    <t>Peterhead,L W L W W W</t>
-  </si>
-  <si>
-    <t>Queens Park,W D W D W D</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,4 1 2 1 3 1,(12)</t>
-  </si>
-  <si>
-    <t>Alloa,2 0 1 2 1 4,(10)</t>
-  </si>
-  <si>
-    <t>Clyde,1 1 2 0 2 0,(6)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 2 5 4 3 1,(15)</t>
-  </si>
-  <si>
-    <t>Dumbarton,1 0 0 0 1 2,(4)</t>
-  </si>
-  <si>
-    <t>East Fife,1 2 0 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 3 1 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Montrose,1 1 0 1 2 2,(7)</t>
-  </si>
-  <si>
-    <t>Peterhead,0 4 0 1 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Queens Park,2 1 1 1 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,1 1 0 1 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Alloa,2 2 0 3 0 1,(8)</t>
-  </si>
-  <si>
-    <t>Clyde,3 1 0 3 1 5,(13)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 0 2 1 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Dumbarton,2 3 2 0 1 1,(9)</t>
-  </si>
-  <si>
-    <t>East Fife,1 0 3 2 3 3,(12)</t>
-  </si>
-  <si>
-    <t>Falkirk,1 1 4 3 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Montrose,1 1 0 2 2 1,(7)</t>
-  </si>
-  <si>
-    <t>Peterhead,1 3 1 0 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 1 0 1 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,5 2 2 2 5 2,(18)</t>
-  </si>
-  <si>
-    <t>Alloa,4 2 1 5 1 5,(18)</t>
-  </si>
-  <si>
-    <t>Clyde,4 2 2 3 3 5,(19)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 2 7 5 3 1,(18)</t>
-  </si>
-  <si>
-    <t>Dumbarton,3 3 2 0 2 3,(13)</t>
-  </si>
-  <si>
-    <t>East Fife,2 2 3 2 4 5,(18)</t>
-  </si>
-  <si>
-    <t>Falkirk,2 4 5 3 2 3,(19)</t>
-  </si>
-  <si>
-    <t>Montrose,2 2 0 3 4 3,(14)</t>
-  </si>
-  <si>
-    <t>Peterhead,1 7 1 1 3 1,(14)</t>
-  </si>
-  <si>
-    <t>Queens Park,3 2 1 2 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,4-1 1-1 2-0 1-1 3-2 1-1</t>
-  </si>
-  <si>
-    <t>Alloa,2-2 0-2 1-0 2-3 1-0 4-1</t>
-  </si>
-  <si>
-    <t>Clyde,1-3 1-1 2-0 0-3 2-1 0-5</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0-0 2-0 5-2 4-1 3-0 1-0</t>
-  </si>
-  <si>
-    <t>Dumbarton,1-2 0-3 0-2 0-0 1-1 2-1</t>
-  </si>
-  <si>
-    <t>East Fife,1-1 2-0 0-3 0-2 1-3 2-3</t>
-  </si>
-  <si>
-    <t>Falkirk,1-1 3-1 1-4 0-3 0-2 1-2</t>
-  </si>
-  <si>
-    <t>Montrose,1-1 1-1 0-0 1-2 2-2 2-1</t>
-  </si>
-  <si>
-    <t>Peterhead,0-1 4-3 0-1 1-0 2-1 1-0</t>
-  </si>
-  <si>
-    <t>Queens Park,2-1 1-1 1-0 1-1 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,3 0 2 0 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Alloa,0 -2 1 -1 1 3,(2)</t>
-  </si>
-  <si>
-    <t>Clyde,-2 0 2 -3 1 -5,(-7)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,0 2 3 3 3 1,(12)</t>
-  </si>
-  <si>
-    <t>Dumbarton,-1 -3 -2 0 0 1,(-5)</t>
-  </si>
-  <si>
-    <t>East Fife,0 2 -3 -2 -2 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Falkirk,0 2 -3 -3 -2 -1,(-7)</t>
-  </si>
-  <si>
-    <t>Montrose,0 0 0 -1 0 1,(0)</t>
-  </si>
-  <si>
-    <t>Peterhead,-1 1 -1 1 1 1,(2)</t>
-  </si>
-  <si>
-    <t>Queens Park,1 0 1 0 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Airdrie Utd,Montrose(3) Clyde(8) Queens Park(4) Cove Rangers(1) Dumbarton(9) Peterhead(7)</t>
-  </si>
-  <si>
-    <t>Alloa,Cove Rangers(1) Airdrie Utd(2) Peterhead(7) Dumbarton(9) Clyde(8) Montrose(3)</t>
-  </si>
-  <si>
-    <t>Clyde,Dumbarton(9) Falkirk(6) East Fife(10) Peterhead(7) Montrose(3) Airdrie Utd(2)</t>
-  </si>
-  <si>
-    <t>Cove Rangers,Queens Park(4) Falkirk(6) Peterhead(7) Clyde(8) Alloa(5) Dumbarton(9)</t>
-  </si>
-  <si>
-    <t>Dumbarton,Alloa(5) Queens Park(4) Falkirk(6) Montrose(3) Peterhead(7) Clyde(8)</t>
-  </si>
-  <si>
-    <t>East Fife,Queens Park(4) Dumbarton(9) Alloa(5) Airdrie Utd(2) Falkirk(6) Cove Rangers(1)</t>
-  </si>
-  <si>
-    <t>Falkirk,Peterhead(7) East Fife(10) Airdrie Utd(2) Montrose(3) Cove Rangers(1) Alloa(5)</t>
-  </si>
-  <si>
-    <t>Montrose,Dumbarton(9) Clyde(8) East Fife(10) Cove Rangers(1) Airdrie Utd(2) Queens Park(4)</t>
-  </si>
-  <si>
-    <t>Peterhead,Airdrie Utd(2) Dumbarton(9) Montrose(3) Falkirk(6) Queens Park(4) East Fife(10)</t>
-  </si>
-  <si>
-    <t>Queens Park,Peterhead(7) Alloa(5) Clyde(8) Cove Rangers(1) East Fife(10) Falkirk(6)</t>
   </si>
 </sst>
 </file>
@@ -2918,303 +2686,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G2" t="s">
-        <v>348</v>
-      </c>
-      <c r="H2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" t="s">
-        <v>320</v>
-      </c>
-      <c r="E4" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G5" t="s">
-        <v>351</v>
-      </c>
-      <c r="H5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" t="s">
-        <v>342</v>
-      </c>
-      <c r="G6" t="s">
-        <v>352</v>
-      </c>
-      <c r="H6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E8" t="s">
-        <v>334</v>
-      </c>
-      <c r="F8" t="s">
-        <v>344</v>
-      </c>
-      <c r="G8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" t="s">
-        <v>345</v>
-      </c>
-      <c r="G9" t="s">
-        <v>355</v>
-      </c>
-      <c r="H9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" t="s">
-        <v>336</v>
-      </c>
-      <c r="F10" t="s">
-        <v>346</v>
-      </c>
-      <c r="G10" t="s">
-        <v>356</v>
-      </c>
-      <c r="H10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D11" t="s">
-        <v>327</v>
-      </c>
-      <c r="E11" t="s">
-        <v>337</v>
-      </c>
-      <c r="F11" t="s">
-        <v>347</v>
-      </c>
-      <c r="G11" t="s">
-        <v>357</v>
-      </c>
-      <c r="H11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
